--- a/filtered_stds.xlsx
+++ b/filtered_stds.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O674"/>
+  <dimension ref="A1:P674"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,6 +501,11 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
+          <t>outliers</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
           <t>filtered M1</t>
         </is>
       </c>
@@ -548,7 +553,8 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -595,7 +601,8 @@
       <c r="N3" t="n">
         <v>0</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="n">
         <v>0.001581138830084191</v>
       </c>
     </row>
@@ -642,7 +649,8 @@
       <c r="N4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="n">
         <v>0.001715938356831196</v>
       </c>
     </row>
@@ -689,7 +697,8 @@
       <c r="N5" t="n">
         <v>0</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="n">
         <v>0.001589898669028191</v>
       </c>
     </row>
@@ -736,7 +745,8 @@
       <c r="N6" t="n">
         <v>0</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="n">
         <v>0.001932183566158573</v>
       </c>
     </row>
@@ -783,7 +793,8 @@
       <c r="N7" t="n">
         <v>0</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="n">
         <v>0.000942809041582171</v>
       </c>
     </row>
@@ -830,7 +841,8 @@
       <c r="N8" t="n">
         <v>0</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="n">
         <v>0.001505545305418361</v>
       </c>
     </row>
@@ -877,7 +889,10 @@
       <c r="N9" t="n">
         <v>0</v>
       </c>
-      <c r="O9" t="inlineStr"/>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -922,7 +937,10 @@
       <c r="N10" t="n">
         <v>0</v>
       </c>
-      <c r="O10" t="inlineStr"/>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -967,7 +985,10 @@
       <c r="N11" t="n">
         <v>0</v>
       </c>
-      <c r="O11" t="inlineStr"/>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1012,7 +1033,10 @@
       <c r="N12" t="n">
         <v>0</v>
       </c>
-      <c r="O12" t="inlineStr"/>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1057,7 +1081,10 @@
       <c r="N13" t="n">
         <v>0</v>
       </c>
-      <c r="O13" t="inlineStr"/>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1102,7 +1129,10 @@
       <c r="N14" t="n">
         <v>0</v>
       </c>
-      <c r="O14" t="inlineStr"/>
+      <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1148,6 +1178,9 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
+        <v>65.05382386916237</v>
+      </c>
+      <c r="P15" t="n">
         <v>0.00103509833901353</v>
       </c>
     </row>
@@ -1194,7 +1227,8 @@
       <c r="N16" t="n">
         <v>0</v>
       </c>
-      <c r="O16" t="n">
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="n">
         <v>0.0007817359599705731</v>
       </c>
     </row>
@@ -1241,7 +1275,10 @@
       <c r="N17" t="n">
         <v>0</v>
       </c>
-      <c r="O17" t="inlineStr"/>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1286,7 +1323,8 @@
       <c r="N18" t="n">
         <v>0</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="n">
         <v>0.001247219128924646</v>
       </c>
     </row>
@@ -1333,7 +1371,8 @@
       <c r="N19" t="n">
         <v>0</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="n">
         <v>0.002011080417199791</v>
       </c>
     </row>
@@ -1380,7 +1419,8 @@
       <c r="N20" t="n">
         <v>0</v>
       </c>
-      <c r="O20" t="n">
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="n">
         <v>0.00279682359512027</v>
       </c>
     </row>
@@ -1427,7 +1467,8 @@
       <c r="N21" t="n">
         <v>0</v>
       </c>
-      <c r="O21" t="n">
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="n">
         <v>0.002936362072739256</v>
       </c>
     </row>
@@ -1474,7 +1515,8 @@
       <c r="N22" t="n">
         <v>0</v>
       </c>
-      <c r="O22" t="n">
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="n">
         <v>0.00154919333848273</v>
       </c>
     </row>
@@ -1521,7 +1563,8 @@
       <c r="N23" t="n">
         <v>0</v>
       </c>
-      <c r="O23" t="n">
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="n">
         <v>0.001925732183987585</v>
       </c>
     </row>
@@ -1568,7 +1611,10 @@
       <c r="N24" t="n">
         <v>0</v>
       </c>
-      <c r="O24" t="inlineStr"/>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1613,7 +1659,10 @@
       <c r="N25" t="n">
         <v>0</v>
       </c>
-      <c r="O25" t="inlineStr"/>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1658,7 +1707,10 @@
       <c r="N26" t="n">
         <v>0</v>
       </c>
-      <c r="O26" t="inlineStr"/>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1703,7 +1755,10 @@
       <c r="N27" t="n">
         <v>0</v>
       </c>
-      <c r="O27" t="inlineStr"/>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1748,7 +1803,10 @@
       <c r="N28" t="n">
         <v>0</v>
       </c>
-      <c r="O28" t="inlineStr"/>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1793,7 +1851,10 @@
       <c r="N29" t="n">
         <v>0</v>
       </c>
-      <c r="O29" t="inlineStr"/>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1838,7 +1899,8 @@
       <c r="N30" t="n">
         <v>0</v>
       </c>
-      <c r="O30" t="n">
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="n">
         <v>0.001398411797560206</v>
       </c>
     </row>
@@ -1885,7 +1947,8 @@
       <c r="N31" t="n">
         <v>0</v>
       </c>
-      <c r="O31" t="n">
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="n">
         <v>0.001563471919941139</v>
       </c>
     </row>
@@ -1932,7 +1995,10 @@
       <c r="N32" t="n">
         <v>0</v>
       </c>
-      <c r="O32" t="inlineStr"/>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1977,7 +2043,8 @@
       <c r="N33" t="n">
         <v>0</v>
       </c>
-      <c r="O33" t="n">
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="n">
         <v>0.001751190071541821</v>
       </c>
     </row>
@@ -2024,7 +2091,8 @@
       <c r="N34" t="n">
         <v>0</v>
       </c>
-      <c r="O34" t="n">
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="n">
         <v>0.002048034287907443</v>
       </c>
     </row>
@@ -2071,7 +2139,8 @@
       <c r="N35" t="n">
         <v>0</v>
       </c>
-      <c r="O35" t="n">
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="n">
         <v>0.002076428557777753</v>
       </c>
     </row>
@@ -2119,6 +2188,9 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
+        <v>26.36341435272248</v>
+      </c>
+      <c r="P36" t="n">
         <v>0.0008901578244226624</v>
       </c>
     </row>
@@ -2166,6 +2238,9 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
+        <v>45.25483399593904</v>
+      </c>
+      <c r="P37" t="n">
         <v>0.001740894679673122</v>
       </c>
     </row>
@@ -2212,7 +2287,8 @@
       <c r="N38" t="n">
         <v>0</v>
       </c>
-      <c r="O38" t="n">
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="n">
         <v>0.002147349787787391</v>
       </c>
     </row>
@@ -2259,7 +2335,10 @@
       <c r="N39" t="n">
         <v>0</v>
       </c>
-      <c r="O39" t="inlineStr"/>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2304,7 +2383,10 @@
       <c r="N40" t="n">
         <v>0</v>
       </c>
-      <c r="O40" t="inlineStr"/>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2349,7 +2431,10 @@
       <c r="N41" t="n">
         <v>0</v>
       </c>
-      <c r="O41" t="inlineStr"/>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2394,7 +2479,10 @@
       <c r="N42" t="n">
         <v>0</v>
       </c>
-      <c r="O42" t="inlineStr"/>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2439,7 +2527,10 @@
       <c r="N43" t="n">
         <v>0</v>
       </c>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2484,7 +2575,10 @@
       <c r="N44" t="n">
         <v>0</v>
       </c>
-      <c r="O44" t="inlineStr"/>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2529,7 +2623,8 @@
       <c r="N45" t="n">
         <v>0</v>
       </c>
-      <c r="O45" t="n">
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="n">
         <v>0.001946506842754188</v>
       </c>
     </row>
@@ -2576,7 +2671,8 @@
       <c r="N46" t="n">
         <v>0</v>
       </c>
-      <c r="O46" t="n">
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="n">
         <v>0.001301708279317783</v>
       </c>
     </row>
@@ -2623,7 +2719,10 @@
       <c r="N47" t="n">
         <v>0</v>
       </c>
-      <c r="O47" t="inlineStr"/>
+      <c r="O47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2668,7 +2767,8 @@
       <c r="N48" t="n">
         <v>0</v>
       </c>
-      <c r="O48" t="n">
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="n">
         <v>0.001702938636592637</v>
       </c>
     </row>
@@ -2715,7 +2815,8 @@
       <c r="N49" t="n">
         <v>0</v>
       </c>
-      <c r="O49" t="n">
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="n">
         <v>0.001505545305418146</v>
       </c>
     </row>
@@ -2762,7 +2863,8 @@
       <c r="N50" t="n">
         <v>0</v>
       </c>
-      <c r="O50" t="n">
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="n">
         <v>0.001074967699773194</v>
       </c>
     </row>
@@ -2809,7 +2911,8 @@
       <c r="N51" t="n">
         <v>0</v>
       </c>
-      <c r="O51" t="n">
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="n">
         <v>0.001813529401164693</v>
       </c>
     </row>
@@ -2856,7 +2959,8 @@
       <c r="N52" t="n">
         <v>0</v>
       </c>
-      <c r="O52" t="n">
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="n">
         <v>0.001663329993316779</v>
       </c>
     </row>
@@ -2903,7 +3007,8 @@
       <c r="N53" t="n">
         <v>0</v>
       </c>
-      <c r="O53" t="n">
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="n">
         <v>0.001776388345929948</v>
       </c>
     </row>
@@ -2950,7 +3055,10 @@
       <c r="N54" t="n">
         <v>0</v>
       </c>
-      <c r="O54" t="inlineStr"/>
+      <c r="O54" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2995,7 +3103,10 @@
       <c r="N55" t="n">
         <v>0</v>
       </c>
-      <c r="O55" t="inlineStr"/>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3040,7 +3151,10 @@
       <c r="N56" t="n">
         <v>0</v>
       </c>
-      <c r="O56" t="inlineStr"/>
+      <c r="O56" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3085,7 +3199,10 @@
       <c r="N57" t="n">
         <v>0</v>
       </c>
-      <c r="O57" t="inlineStr"/>
+      <c r="O57" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3130,7 +3247,10 @@
       <c r="N58" t="n">
         <v>0</v>
       </c>
-      <c r="O58" t="inlineStr"/>
+      <c r="O58" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3175,7 +3295,10 @@
       <c r="N59" t="n">
         <v>0</v>
       </c>
-      <c r="O59" t="inlineStr"/>
+      <c r="O59" t="n">
+        <v>0</v>
+      </c>
+      <c r="P59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3220,7 +3343,8 @@
       <c r="N60" t="n">
         <v>0</v>
       </c>
-      <c r="O60" t="n">
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="n">
         <v>0.002397915761656375</v>
       </c>
     </row>
@@ -3268,6 +3392,9 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
+        <v>348.6036431249679</v>
+      </c>
+      <c r="P61" t="n">
         <v>0.001035098339013531</v>
       </c>
     </row>
@@ -3314,7 +3441,8 @@
       <c r="N62" t="n">
         <v>0</v>
       </c>
-      <c r="O62" t="n">
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="n">
         <v>0.001900292375165306</v>
       </c>
     </row>
@@ -3361,7 +3489,8 @@
       <c r="N63" t="n">
         <v>0</v>
       </c>
-      <c r="O63" t="n">
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="n">
         <v>0.001595131481867324</v>
       </c>
     </row>
@@ -3408,7 +3537,8 @@
       <c r="N64" t="n">
         <v>0</v>
       </c>
-      <c r="O64" t="n">
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="n">
         <v>0.0008164965809277884</v>
       </c>
     </row>
@@ -3455,7 +3585,8 @@
       <c r="N65" t="n">
         <v>0</v>
       </c>
-      <c r="O65" t="n">
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="n">
         <v>0.001837873166945379</v>
       </c>
     </row>
@@ -3502,7 +3633,8 @@
       <c r="N66" t="n">
         <v>0</v>
       </c>
-      <c r="O66" t="n">
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="n">
         <v>0.001523883926754989</v>
       </c>
     </row>
@@ -3549,7 +3681,8 @@
       <c r="N67" t="n">
         <v>0</v>
       </c>
-      <c r="O67" t="n">
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="n">
         <v>0.001595131481867363</v>
       </c>
     </row>
@@ -3596,7 +3729,8 @@
       <c r="N68" t="n">
         <v>0</v>
       </c>
-      <c r="O68" t="n">
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="n">
         <v>0.00128668393770786</v>
       </c>
     </row>
@@ -3643,7 +3777,8 @@
       <c r="N69" t="n">
         <v>0</v>
       </c>
-      <c r="O69" t="n">
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3690,7 +3825,8 @@
       <c r="N70" t="n">
         <v>0</v>
       </c>
-      <c r="O70" t="n">
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="n">
         <v>0.001269295517643986</v>
       </c>
     </row>
@@ -3737,7 +3873,8 @@
       <c r="N71" t="n">
         <v>0</v>
       </c>
-      <c r="O71" t="n">
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="n">
         <v>0.001418136492412182</v>
       </c>
     </row>
@@ -3784,7 +3921,8 @@
       <c r="N72" t="n">
         <v>0</v>
       </c>
-      <c r="O72" t="n">
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="n">
         <v>0.001398411797560149</v>
       </c>
     </row>
@@ -3831,7 +3969,8 @@
       <c r="N73" t="n">
         <v>0</v>
       </c>
-      <c r="O73" t="n">
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="n">
         <v>0.001632993161855427</v>
       </c>
     </row>
@@ -3878,7 +4017,8 @@
       <c r="N74" t="n">
         <v>0</v>
       </c>
-      <c r="O74" t="n">
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="n">
         <v>0.002068278940998728</v>
       </c>
     </row>
@@ -3925,7 +4065,8 @@
       <c r="N75" t="n">
         <v>0</v>
       </c>
-      <c r="O75" t="n">
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="n">
         <v>0.001828782229912819</v>
       </c>
     </row>
@@ -3972,7 +4113,8 @@
       <c r="N76" t="n">
         <v>0</v>
       </c>
-      <c r="O76" t="n">
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4019,7 +4161,8 @@
       <c r="N77" t="n">
         <v>0</v>
       </c>
-      <c r="O77" t="n">
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="n">
         <v>0.002002775851439974</v>
       </c>
     </row>
@@ -4066,7 +4209,8 @@
       <c r="N78" t="n">
         <v>0</v>
       </c>
-      <c r="O78" t="n">
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="n">
         <v>0.00158113883008419</v>
       </c>
     </row>
@@ -4113,7 +4257,8 @@
       <c r="N79" t="n">
         <v>0</v>
       </c>
-      <c r="O79" t="n">
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="n">
         <v>0.001646545204697203</v>
       </c>
     </row>
@@ -4160,7 +4305,8 @@
       <c r="N80" t="n">
         <v>0</v>
       </c>
-      <c r="O80" t="n">
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="n">
         <v>0.02633459912569597</v>
       </c>
     </row>
@@ -4207,7 +4353,8 @@
       <c r="N81" t="n">
         <v>0</v>
       </c>
-      <c r="O81" t="n">
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="n">
         <v>0.0009324400487135044</v>
       </c>
     </row>
@@ -4254,7 +4401,8 @@
       <c r="N82" t="n">
         <v>0</v>
       </c>
-      <c r="O82" t="n">
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="n">
         <v>0.00150554530541828</v>
       </c>
     </row>
@@ -4301,7 +4449,8 @@
       <c r="N83" t="n">
         <v>0</v>
       </c>
-      <c r="O83" t="n">
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4348,7 +4497,8 @@
       <c r="N84" t="n">
         <v>0</v>
       </c>
-      <c r="O84" t="n">
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="n">
         <v>0.001702938636592639</v>
       </c>
     </row>
@@ -4396,6 +4546,9 @@
         <v>0</v>
       </c>
       <c r="O85" t="n">
+        <v>6.363961030678928</v>
+      </c>
+      <c r="P85" t="n">
         <v>0.00141421356237308</v>
       </c>
     </row>
@@ -4442,7 +4595,8 @@
       <c r="N86" t="n">
         <v>0</v>
       </c>
-      <c r="O86" t="n">
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="n">
         <v>0.001197218999737738</v>
       </c>
     </row>
@@ -4490,6 +4644,9 @@
         <v>0</v>
       </c>
       <c r="O87" t="n">
+        <v>57.9827560572969</v>
+      </c>
+      <c r="P87" t="n">
         <v>0.001407885953173349</v>
       </c>
     </row>
@@ -4536,7 +4693,8 @@
       <c r="N88" t="n">
         <v>0</v>
       </c>
-      <c r="O88" t="n">
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="n">
         <v>0.0015670212364722</v>
       </c>
     </row>
@@ -4583,7 +4741,8 @@
       <c r="N89" t="n">
         <v>0</v>
       </c>
-      <c r="O89" t="n">
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="n">
         <v>0.001536229149573805</v>
       </c>
     </row>
@@ -4630,7 +4789,8 @@
       <c r="N90" t="n">
         <v>0</v>
       </c>
-      <c r="O90" t="n">
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4677,7 +4837,8 @@
       <c r="N91" t="n">
         <v>0</v>
       </c>
-      <c r="O91" t="n">
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="n">
         <v>0.0009718253158075631</v>
       </c>
     </row>
@@ -4724,7 +4885,8 @@
       <c r="N92" t="n">
         <v>0</v>
       </c>
-      <c r="O92" t="n">
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="n">
         <v>0.001398411797560196</v>
       </c>
     </row>
@@ -4771,7 +4933,8 @@
       <c r="N93" t="n">
         <v>0</v>
       </c>
-      <c r="O93" t="n">
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="n">
         <v>0.001751190071541888</v>
       </c>
     </row>
@@ -4818,7 +4981,8 @@
       <c r="N94" t="n">
         <v>0</v>
       </c>
-      <c r="O94" t="n">
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="n">
         <v>0.001873795909674083</v>
       </c>
     </row>
@@ -4865,7 +5029,8 @@
       <c r="N95" t="n">
         <v>0</v>
       </c>
-      <c r="O95" t="n">
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="n">
         <v>0.002402336825306345</v>
       </c>
     </row>
@@ -4912,7 +5077,8 @@
       <c r="N96" t="n">
         <v>0</v>
       </c>
-      <c r="O96" t="n">
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="n">
         <v>0.001702416583043976</v>
       </c>
     </row>
@@ -4959,7 +5125,8 @@
       <c r="N97" t="n">
         <v>0</v>
       </c>
-      <c r="O97" t="n">
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5006,7 +5173,8 @@
       <c r="N98" t="n">
         <v>0</v>
       </c>
-      <c r="O98" t="n">
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="n">
         <v>0.001494434118097253</v>
       </c>
     </row>
@@ -5053,7 +5221,8 @@
       <c r="N99" t="n">
         <v>0</v>
       </c>
-      <c r="O99" t="n">
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="n">
         <v>0.001349897115421146</v>
       </c>
     </row>
@@ -5100,7 +5269,8 @@
       <c r="N100" t="n">
         <v>0</v>
       </c>
-      <c r="O100" t="n">
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="n">
         <v>0.001751190071541898</v>
       </c>
     </row>
@@ -5147,7 +5317,8 @@
       <c r="N101" t="n">
         <v>0</v>
       </c>
-      <c r="O101" t="n">
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="n">
         <v>0.001852925614625041</v>
       </c>
     </row>
@@ -5194,7 +5365,8 @@
       <c r="N102" t="n">
         <v>0</v>
       </c>
-      <c r="O102" t="n">
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="n">
         <v>0.001888562063228426</v>
       </c>
     </row>
@@ -5241,7 +5413,8 @@
       <c r="N103" t="n">
         <v>0</v>
       </c>
-      <c r="O103" t="n">
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="n">
         <v>0.00258413965910876</v>
       </c>
     </row>
@@ -5288,7 +5461,8 @@
       <c r="N104" t="n">
         <v>0</v>
       </c>
-      <c r="O104" t="n">
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5335,7 +5509,8 @@
       <c r="N105" t="n">
         <v>0</v>
       </c>
-      <c r="O105" t="n">
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="n">
         <v>0.001728840330652013</v>
       </c>
     </row>
@@ -5382,7 +5557,8 @@
       <c r="N106" t="n">
         <v>0</v>
       </c>
-      <c r="O106" t="n">
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="n">
         <v>0.00161932770686543</v>
       </c>
     </row>
@@ -5429,7 +5605,8 @@
       <c r="N107" t="n">
         <v>0</v>
       </c>
-      <c r="O107" t="n">
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="n">
         <v>0.001649915822768717</v>
       </c>
     </row>
@@ -5476,7 +5653,8 @@
       <c r="N108" t="n">
         <v>0</v>
       </c>
-      <c r="O108" t="n">
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="n">
         <v>0.001955050439815504</v>
       </c>
     </row>
@@ -5523,7 +5701,8 @@
       <c r="N109" t="n">
         <v>0</v>
       </c>
-      <c r="O109" t="n">
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="n">
         <v>0.001433720877840302</v>
       </c>
     </row>
@@ -5570,7 +5749,8 @@
       <c r="N110" t="n">
         <v>0</v>
       </c>
-      <c r="O110" t="n">
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="n">
         <v>0.002292402912036236</v>
       </c>
     </row>
@@ -5618,6 +5798,9 @@
         <v>0</v>
       </c>
       <c r="O111" t="n">
+        <v>6.363961030678928</v>
+      </c>
+      <c r="P111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5664,7 +5847,8 @@
       <c r="N112" t="n">
         <v>0</v>
       </c>
-      <c r="O112" t="n">
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="n">
         <v>0.001333333333333337</v>
       </c>
     </row>
@@ -5712,6 +5896,9 @@
         <v>0</v>
       </c>
       <c r="O113" t="n">
+        <v>37.78222344348375</v>
+      </c>
+      <c r="P113" t="n">
         <v>0.02424478343498917</v>
       </c>
     </row>
@@ -5758,7 +5945,8 @@
       <c r="N114" t="n">
         <v>0</v>
       </c>
-      <c r="O114" t="n">
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="n">
         <v>0.3410367200822288</v>
       </c>
     </row>
@@ -5805,7 +5993,8 @@
       <c r="N115" t="n">
         <v>0</v>
       </c>
-      <c r="O115" t="n">
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="n">
         <v>0.004702245326555147</v>
       </c>
     </row>
@@ -5852,7 +6041,8 @@
       <c r="N116" t="n">
         <v>0</v>
       </c>
-      <c r="O116" t="n">
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="n">
         <v>0.3265646779565863</v>
       </c>
     </row>
@@ -5899,7 +6089,8 @@
       <c r="N117" t="n">
         <v>0</v>
       </c>
-      <c r="O117" t="n">
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="n">
         <v>0.003308238873546458</v>
       </c>
     </row>
@@ -5946,7 +6137,8 @@
       <c r="N118" t="n">
         <v>0</v>
       </c>
-      <c r="O118" t="n">
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5993,7 +6185,8 @@
       <c r="N119" t="n">
         <v>0</v>
       </c>
-      <c r="O119" t="n">
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="n">
         <v>0.00150554530541816</v>
       </c>
     </row>
@@ -6040,7 +6233,8 @@
       <c r="N120" t="n">
         <v>0</v>
       </c>
-      <c r="O120" t="n">
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="n">
         <v>0.00183787316694532</v>
       </c>
     </row>
@@ -6087,7 +6281,8 @@
       <c r="N121" t="n">
         <v>0</v>
       </c>
-      <c r="O121" t="n">
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="n">
         <v>0.002250925735484664</v>
       </c>
     </row>
@@ -6134,7 +6329,8 @@
       <c r="N122" t="n">
         <v>0</v>
       </c>
-      <c r="O122" t="n">
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="n">
         <v>0.001394433377556774</v>
       </c>
     </row>
@@ -6181,7 +6377,8 @@
       <c r="N123" t="n">
         <v>0</v>
       </c>
-      <c r="O123" t="n">
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="n">
         <v>0.002968145698730018</v>
       </c>
     </row>
@@ -6228,7 +6425,8 @@
       <c r="N124" t="n">
         <v>0</v>
       </c>
-      <c r="O124" t="n">
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="n">
         <v>0.002713136766016893</v>
       </c>
     </row>
@@ -6275,7 +6473,8 @@
       <c r="N125" t="n">
         <v>0</v>
       </c>
-      <c r="O125" t="n">
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6322,7 +6521,8 @@
       <c r="N126" t="n">
         <v>0</v>
       </c>
-      <c r="O126" t="n">
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="n">
         <v>0.157556480172808</v>
       </c>
     </row>
@@ -6369,7 +6569,8 @@
       <c r="N127" t="n">
         <v>0</v>
       </c>
-      <c r="O127" t="n">
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="n">
         <v>0.00188856206322868</v>
       </c>
     </row>
@@ -6417,6 +6618,9 @@
         <v>0</v>
       </c>
       <c r="O128" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="P128" t="n">
         <v>0.01022252415013036</v>
       </c>
     </row>
@@ -6463,7 +6667,8 @@
       <c r="N129" t="n">
         <v>0</v>
       </c>
-      <c r="O129" t="n">
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="n">
         <v>0.3015282555398232</v>
       </c>
     </row>
@@ -6510,7 +6715,8 @@
       <c r="N130" t="n">
         <v>0</v>
       </c>
-      <c r="O130" t="n">
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="n">
         <v>0.001686548085423339</v>
       </c>
     </row>
@@ -6557,7 +6763,8 @@
       <c r="N131" t="n">
         <v>0</v>
       </c>
-      <c r="O131" t="n">
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="n">
         <v>0.001481890684227159</v>
       </c>
     </row>
@@ -6605,6 +6812,9 @@
         <v>0</v>
       </c>
       <c r="O132" t="n">
+        <v>2.10440865803199</v>
+      </c>
+      <c r="P132" t="n">
         <v>0.8263850797297833</v>
       </c>
     </row>
@@ -6651,7 +6861,8 @@
       <c r="N133" t="n">
         <v>0</v>
       </c>
-      <c r="O133" t="n">
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="n">
         <v>0.1569945505069806</v>
       </c>
     </row>
@@ -6698,7 +6909,8 @@
       <c r="N134" t="n">
         <v>0</v>
       </c>
-      <c r="O134" t="n">
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="n">
         <v>0.001074967699773203</v>
       </c>
     </row>
@@ -6746,6 +6958,9 @@
         <v>0</v>
       </c>
       <c r="O135" t="n">
+        <v>21.21320343559643</v>
+      </c>
+      <c r="P135" t="n">
         <v>0.001246423454758174</v>
       </c>
     </row>
@@ -6792,7 +7007,8 @@
       <c r="N136" t="n">
         <v>0</v>
       </c>
-      <c r="O136" t="n">
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="n">
         <v>0.0009944289260117724</v>
       </c>
     </row>
@@ -6839,7 +7055,8 @@
       <c r="N137" t="n">
         <v>0</v>
       </c>
-      <c r="O137" t="n">
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="n">
         <v>0.001740051084818506</v>
       </c>
     </row>
@@ -6886,7 +7103,8 @@
       <c r="N138" t="n">
         <v>0</v>
       </c>
-      <c r="O138" t="n">
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="n">
         <v>0.001229272594305401</v>
       </c>
     </row>
@@ -6933,7 +7151,10 @@
       <c r="N139" t="n">
         <v>0</v>
       </c>
-      <c r="O139" t="inlineStr"/>
+      <c r="O139" t="n">
+        <v>0</v>
+      </c>
+      <c r="P139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6978,7 +7199,10 @@
       <c r="N140" t="n">
         <v>0</v>
       </c>
-      <c r="O140" t="inlineStr"/>
+      <c r="O140" t="n">
+        <v>0</v>
+      </c>
+      <c r="P140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7023,7 +7247,10 @@
       <c r="N141" t="n">
         <v>0</v>
       </c>
-      <c r="O141" t="inlineStr"/>
+      <c r="O141" t="n">
+        <v>0</v>
+      </c>
+      <c r="P141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7068,7 +7295,10 @@
       <c r="N142" t="n">
         <v>0</v>
       </c>
-      <c r="O142" t="inlineStr"/>
+      <c r="O142" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -7113,7 +7343,10 @@
       <c r="N143" t="n">
         <v>0</v>
       </c>
-      <c r="O143" t="inlineStr"/>
+      <c r="O143" t="n">
+        <v>0</v>
+      </c>
+      <c r="P143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -7158,7 +7391,10 @@
       <c r="N144" t="n">
         <v>0</v>
       </c>
-      <c r="O144" t="inlineStr"/>
+      <c r="O144" t="n">
+        <v>3</v>
+      </c>
+      <c r="P144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -7203,7 +7439,8 @@
       <c r="N145" t="n">
         <v>0</v>
       </c>
-      <c r="O145" t="n">
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="n">
         <v>0.001135292424395092</v>
       </c>
     </row>
@@ -7250,7 +7487,8 @@
       <c r="N146" t="n">
         <v>0</v>
       </c>
-      <c r="O146" t="n">
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="n">
         <v>0.0007071067811865459</v>
       </c>
     </row>
@@ -7297,7 +7535,10 @@
       <c r="N147" t="n">
         <v>0</v>
       </c>
-      <c r="O147" t="inlineStr"/>
+      <c r="O147" t="n">
+        <v>0</v>
+      </c>
+      <c r="P147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -7342,7 +7583,8 @@
       <c r="N148" t="n">
         <v>0</v>
       </c>
-      <c r="O148" t="n">
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="n">
         <v>0.1580469691086939</v>
       </c>
     </row>
@@ -7389,7 +7631,8 @@
       <c r="N149" t="n">
         <v>0</v>
       </c>
-      <c r="O149" t="n">
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="n">
         <v>0.001943650631615103</v>
       </c>
     </row>
@@ -7436,7 +7679,8 @@
       <c r="N150" t="n">
         <v>0</v>
       </c>
-      <c r="O150" t="n">
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="n">
         <v>0.0009660917830793715</v>
       </c>
     </row>
@@ -7483,7 +7727,8 @@
       <c r="N151" t="n">
         <v>0</v>
       </c>
-      <c r="O151" t="n">
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="n">
         <v>0.002127857555800508</v>
       </c>
     </row>
@@ -7530,7 +7775,8 @@
       <c r="N152" t="n">
         <v>0</v>
       </c>
-      <c r="O152" t="n">
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="n">
         <v>0.001567021236472262</v>
       </c>
     </row>
@@ -7577,7 +7823,8 @@
       <c r="N153" t="n">
         <v>0</v>
       </c>
-      <c r="O153" t="n">
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="n">
         <v>0.001013793755049658</v>
       </c>
     </row>
@@ -7625,6 +7872,9 @@
         <v>0</v>
       </c>
       <c r="O154" t="n">
+        <v>3.181980515339464</v>
+      </c>
+      <c r="P154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7671,7 +7921,10 @@
       <c r="N155" t="n">
         <v>0</v>
       </c>
-      <c r="O155" t="inlineStr"/>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7716,7 +7969,10 @@
       <c r="N156" t="n">
         <v>0</v>
       </c>
-      <c r="O156" t="inlineStr"/>
+      <c r="O156" t="n">
+        <v>0</v>
+      </c>
+      <c r="P156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7761,7 +8017,10 @@
       <c r="N157" t="n">
         <v>0</v>
       </c>
-      <c r="O157" t="inlineStr"/>
+      <c r="O157" t="n">
+        <v>0</v>
+      </c>
+      <c r="P157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7806,7 +8065,10 @@
       <c r="N158" t="n">
         <v>0</v>
       </c>
-      <c r="O158" t="inlineStr"/>
+      <c r="O158" t="n">
+        <v>0</v>
+      </c>
+      <c r="P158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7851,7 +8113,10 @@
       <c r="N159" t="n">
         <v>0</v>
       </c>
-      <c r="O159" t="inlineStr"/>
+      <c r="O159" t="n">
+        <v>0</v>
+      </c>
+      <c r="P159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7896,7 +8161,8 @@
       <c r="N160" t="n">
         <v>0</v>
       </c>
-      <c r="O160" t="n">
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="n">
         <v>0.001414213562373098</v>
       </c>
     </row>
@@ -7943,7 +8209,8 @@
       <c r="N161" t="n">
         <v>0</v>
       </c>
-      <c r="O161" t="n">
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="n">
         <v>0.001059349905471376</v>
       </c>
     </row>
@@ -7990,7 +8257,10 @@
       <c r="N162" t="n">
         <v>0</v>
       </c>
-      <c r="O162" t="inlineStr"/>
+      <c r="O162" t="n">
+        <v>0</v>
+      </c>
+      <c r="P162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -8035,7 +8305,8 @@
       <c r="N163" t="n">
         <v>0</v>
       </c>
-      <c r="O163" t="n">
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="n">
         <v>0.0009486832980505122</v>
       </c>
     </row>
@@ -8082,7 +8353,8 @@
       <c r="N164" t="n">
         <v>0</v>
       </c>
-      <c r="O164" t="n">
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="n">
         <v>0.001429840705968512</v>
       </c>
     </row>
@@ -8129,7 +8401,8 @@
       <c r="N165" t="n">
         <v>0</v>
       </c>
-      <c r="O165" t="n">
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="n">
         <v>0.001751190071541824</v>
       </c>
     </row>
@@ -8176,7 +8449,8 @@
       <c r="N166" t="n">
         <v>0</v>
       </c>
-      <c r="O166" t="n">
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="n">
         <v>0.001702938636592618</v>
       </c>
     </row>
@@ -8223,7 +8497,8 @@
       <c r="N167" t="n">
         <v>0</v>
       </c>
-      <c r="O167" t="n">
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="n">
         <v>0.001632993161855429</v>
       </c>
     </row>
@@ -8270,7 +8545,8 @@
       <c r="N168" t="n">
         <v>0</v>
       </c>
-      <c r="O168" t="n">
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="n">
         <v>0.001247219128924545</v>
       </c>
     </row>
@@ -8317,7 +8593,10 @@
       <c r="N169" t="n">
         <v>0</v>
       </c>
-      <c r="O169" t="inlineStr"/>
+      <c r="O169" t="n">
+        <v>0</v>
+      </c>
+      <c r="P169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -8362,7 +8641,10 @@
       <c r="N170" t="n">
         <v>0</v>
       </c>
-      <c r="O170" t="inlineStr"/>
+      <c r="O170" t="n">
+        <v>0</v>
+      </c>
+      <c r="P170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -8407,7 +8689,10 @@
       <c r="N171" t="n">
         <v>0</v>
       </c>
-      <c r="O171" t="inlineStr"/>
+      <c r="O171" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -8452,7 +8737,10 @@
       <c r="N172" t="n">
         <v>0</v>
       </c>
-      <c r="O172" t="inlineStr"/>
+      <c r="O172" t="n">
+        <v>0</v>
+      </c>
+      <c r="P172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -8497,7 +8785,10 @@
       <c r="N173" t="n">
         <v>0</v>
       </c>
-      <c r="O173" t="inlineStr"/>
+      <c r="O173" t="n">
+        <v>3</v>
+      </c>
+      <c r="P173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -8542,7 +8833,8 @@
       <c r="N174" t="n">
         <v>0</v>
       </c>
-      <c r="O174" t="n">
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="n">
         <v>0.001333333333333326</v>
       </c>
     </row>
@@ -8589,7 +8881,8 @@
       <c r="N175" t="n">
         <v>0</v>
       </c>
-      <c r="O175" t="n">
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="n">
         <v>0.00154491999073667</v>
       </c>
     </row>
@@ -8636,7 +8929,8 @@
       <c r="N176" t="n">
         <v>0</v>
       </c>
-      <c r="O176" t="n">
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="n">
         <v>0.001166666666666669</v>
       </c>
     </row>
@@ -8683,7 +8977,10 @@
       <c r="N177" t="n">
         <v>0</v>
       </c>
-      <c r="O177" t="inlineStr"/>
+      <c r="O177" t="n">
+        <v>0</v>
+      </c>
+      <c r="P177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -8728,7 +9025,8 @@
       <c r="N178" t="n">
         <v>0</v>
       </c>
-      <c r="O178" t="n">
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="n">
         <v>0.001100504934614622</v>
       </c>
     </row>
@@ -8775,7 +9073,8 @@
       <c r="N179" t="n">
         <v>0</v>
       </c>
-      <c r="O179" t="n">
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="n">
         <v>0.001173787790777305</v>
       </c>
     </row>
@@ -8822,7 +9121,8 @@
       <c r="N180" t="n">
         <v>0</v>
       </c>
-      <c r="O180" t="n">
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="n">
         <v>0.001878237944930646</v>
       </c>
     </row>
@@ -8869,7 +9169,8 @@
       <c r="N181" t="n">
         <v>0</v>
       </c>
-      <c r="O181" t="n">
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="n">
         <v>0.001384878654932853</v>
       </c>
     </row>
@@ -8916,7 +9217,8 @@
       <c r="N182" t="n">
         <v>0</v>
       </c>
-      <c r="O182" t="n">
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="n">
         <v>0.001595131481867303</v>
       </c>
     </row>
@@ -8963,7 +9265,8 @@
       <c r="N183" t="n">
         <v>0</v>
       </c>
-      <c r="O183" t="n">
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="n">
         <v>0.001370320319406554</v>
       </c>
     </row>
@@ -9010,7 +9313,10 @@
       <c r="N184" t="n">
         <v>0</v>
       </c>
-      <c r="O184" t="inlineStr"/>
+      <c r="O184" t="n">
+        <v>0</v>
+      </c>
+      <c r="P184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -9055,7 +9361,10 @@
       <c r="N185" t="n">
         <v>0</v>
       </c>
-      <c r="O185" t="inlineStr"/>
+      <c r="O185" t="n">
+        <v>0</v>
+      </c>
+      <c r="P185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -9100,7 +9409,10 @@
       <c r="N186" t="n">
         <v>0</v>
       </c>
-      <c r="O186" t="inlineStr"/>
+      <c r="O186" t="n">
+        <v>0</v>
+      </c>
+      <c r="P186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -9145,7 +9457,10 @@
       <c r="N187" t="n">
         <v>0</v>
       </c>
-      <c r="O187" t="inlineStr"/>
+      <c r="O187" t="n">
+        <v>0</v>
+      </c>
+      <c r="P187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -9190,7 +9505,10 @@
       <c r="N188" t="n">
         <v>0</v>
       </c>
-      <c r="O188" t="inlineStr"/>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -9235,7 +9553,8 @@
       <c r="N189" t="n">
         <v>0</v>
       </c>
-      <c r="O189" t="n">
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="n">
         <v>0.0009486832980505176</v>
       </c>
     </row>
@@ -9282,7 +9601,8 @@
       <c r="N190" t="n">
         <v>0</v>
       </c>
-      <c r="O190" t="n">
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="n">
         <v>0.001828782229912695</v>
       </c>
     </row>
@@ -9329,7 +9649,8 @@
       <c r="N191" t="n">
         <v>0</v>
       </c>
-      <c r="O191" t="n">
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="n">
         <v>0.001577621275493245</v>
       </c>
     </row>
@@ -9376,7 +9697,8 @@
       <c r="N192" t="n">
         <v>0</v>
       </c>
-      <c r="O192" t="n">
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="n">
         <v>0.001500000000000026</v>
       </c>
     </row>
@@ -9424,6 +9746,9 @@
         <v>0</v>
       </c>
       <c r="O193" t="n">
+        <v>0.01096965511460289</v>
+      </c>
+      <c r="P193" t="n">
         <v>0.0005773502691896231</v>
       </c>
     </row>
@@ -9470,7 +9795,8 @@
       <c r="N194" t="n">
         <v>0</v>
       </c>
-      <c r="O194" t="n">
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="n">
         <v>0.001316561177208766</v>
       </c>
     </row>
@@ -9517,7 +9843,8 @@
       <c r="N195" t="n">
         <v>0</v>
       </c>
-      <c r="O195" t="n">
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="n">
         <v>0.00136422546197876</v>
       </c>
     </row>
@@ -9564,7 +9891,8 @@
       <c r="N196" t="n">
         <v>0</v>
       </c>
-      <c r="O196" t="n">
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="n">
         <v>0.0009999999999999733</v>
       </c>
     </row>
@@ -9611,7 +9939,8 @@
       <c r="N197" t="n">
         <v>0</v>
       </c>
-      <c r="O197" t="n">
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="n">
         <v>0.001813529401164736</v>
       </c>
     </row>
@@ -9658,7 +9987,8 @@
       <c r="N198" t="n">
         <v>0</v>
       </c>
-      <c r="O198" t="n">
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="n">
         <v>0.001563471919941117</v>
       </c>
     </row>
@@ -9705,7 +10035,8 @@
       <c r="N199" t="n">
         <v>0</v>
       </c>
-      <c r="O199" t="n">
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9752,7 +10083,8 @@
       <c r="N200" t="n">
         <v>0</v>
       </c>
-      <c r="O200" t="n">
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="n">
         <v>0.001505545305418171</v>
       </c>
     </row>
@@ -9799,7 +10131,8 @@
       <c r="N201" t="n">
         <v>0</v>
       </c>
-      <c r="O201" t="n">
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="n">
         <v>0.001813529401164725</v>
       </c>
     </row>
@@ -9847,6 +10180,9 @@
         <v>0</v>
       </c>
       <c r="O202" t="n">
+        <v>13.4350288425444</v>
+      </c>
+      <c r="P202" t="n">
         <v>0.001505940617307755</v>
       </c>
     </row>
@@ -9893,7 +10229,8 @@
       <c r="N203" t="n">
         <v>0</v>
       </c>
-      <c r="O203" t="n">
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="n">
         <v>0.0009660917830792804</v>
       </c>
     </row>
@@ -9940,7 +10277,8 @@
       <c r="N204" t="n">
         <v>0</v>
       </c>
-      <c r="O204" t="n">
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="n">
         <v>0.2938395064581267</v>
       </c>
     </row>
@@ -9987,7 +10325,8 @@
       <c r="N205" t="n">
         <v>0</v>
       </c>
-      <c r="O205" t="n">
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="n">
         <v>0.001567021236472379</v>
       </c>
     </row>
@@ -10034,7 +10373,8 @@
       <c r="N206" t="n">
         <v>0</v>
       </c>
-      <c r="O206" t="n">
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10081,7 +10421,8 @@
       <c r="N207" t="n">
         <v>0</v>
       </c>
-      <c r="O207" t="n">
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="n">
         <v>0.001370320319406304</v>
       </c>
     </row>
@@ -10128,7 +10469,8 @@
       <c r="N208" t="n">
         <v>0</v>
       </c>
-      <c r="O208" t="n">
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="n">
         <v>0.001699673171197618</v>
       </c>
     </row>
@@ -10175,7 +10517,8 @@
       <c r="N209" t="n">
         <v>0</v>
       </c>
-      <c r="O209" t="n">
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="n">
         <v>0.002347575581554555</v>
       </c>
     </row>
@@ -10222,7 +10565,8 @@
       <c r="N210" t="n">
         <v>0</v>
       </c>
-      <c r="O210" t="n">
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="n">
         <v>0.001337493509849237</v>
       </c>
     </row>
@@ -10269,7 +10613,8 @@
       <c r="N211" t="n">
         <v>0</v>
       </c>
-      <c r="O211" t="n">
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="n">
         <v>0.001159501808728524</v>
       </c>
     </row>
@@ -10316,7 +10661,8 @@
       <c r="N212" t="n">
         <v>0</v>
       </c>
-      <c r="O212" t="n">
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="n">
         <v>0.001791957340761963</v>
       </c>
     </row>
@@ -10363,7 +10709,8 @@
       <c r="N213" t="n">
         <v>0</v>
       </c>
-      <c r="O213" t="n">
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10410,7 +10757,8 @@
       <c r="N214" t="n">
         <v>0</v>
       </c>
-      <c r="O214" t="n">
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="n">
         <v>0.001135292424395096</v>
       </c>
     </row>
@@ -10457,7 +10805,8 @@
       <c r="N215" t="n">
         <v>0</v>
       </c>
-      <c r="O215" t="n">
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="n">
         <v>0.001636391694484472</v>
       </c>
     </row>
@@ -10504,7 +10853,8 @@
       <c r="N216" t="n">
         <v>0</v>
       </c>
-      <c r="O216" t="n">
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="n">
         <v>0.0009924156835164257</v>
       </c>
     </row>
@@ -10551,7 +10901,8 @@
       <c r="N217" t="n">
         <v>0</v>
       </c>
-      <c r="O217" t="n">
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="n">
         <v>0.3115036115360463</v>
       </c>
     </row>
@@ -10598,7 +10949,8 @@
       <c r="N218" t="n">
         <v>0</v>
       </c>
-      <c r="O218" t="n">
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="n">
         <v>0.001549193338482892</v>
       </c>
     </row>
@@ -10645,7 +10997,8 @@
       <c r="N219" t="n">
         <v>0</v>
       </c>
-      <c r="O219" t="n">
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="n">
         <v>0.00158989866902853</v>
       </c>
     </row>
@@ -10692,7 +11045,8 @@
       <c r="N220" t="n">
         <v>0</v>
       </c>
-      <c r="O220" t="n">
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10739,7 +11093,8 @@
       <c r="N221" t="n">
         <v>0</v>
       </c>
-      <c r="O221" t="n">
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="n">
         <v>0.0007888106377466168</v>
       </c>
     </row>
@@ -10786,7 +11141,8 @@
       <c r="N222" t="n">
         <v>0</v>
       </c>
-      <c r="O222" t="n">
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="n">
         <v>0.001054092553389484</v>
       </c>
     </row>
@@ -10833,7 +11189,8 @@
       <c r="N223" t="n">
         <v>0</v>
       </c>
-      <c r="O223" t="n">
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="n">
         <v>0.001001332445627693</v>
       </c>
     </row>
@@ -10880,7 +11237,8 @@
       <c r="N224" t="n">
         <v>0</v>
       </c>
-      <c r="O224" t="n">
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="n">
         <v>0.002796823595120455</v>
       </c>
     </row>
@@ -10927,7 +11285,8 @@
       <c r="N225" t="n">
         <v>0</v>
       </c>
-      <c r="O225" t="n">
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="n">
         <v>0.001429840705968608</v>
       </c>
     </row>
@@ -10975,6 +11334,9 @@
         <v>0</v>
       </c>
       <c r="O226" t="n">
+        <v>71.41778489984129</v>
+      </c>
+      <c r="P226" t="n">
         <v>0.001767766952966497</v>
       </c>
     </row>
@@ -11021,7 +11383,8 @@
       <c r="N227" t="n">
         <v>0</v>
       </c>
-      <c r="O227" t="n">
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11068,7 +11431,8 @@
       <c r="N228" t="n">
         <v>0</v>
       </c>
-      <c r="O228" t="n">
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="n">
         <v>0.001619327706865526</v>
       </c>
     </row>
@@ -11116,6 +11480,9 @@
         <v>0</v>
       </c>
       <c r="O229" t="n">
+        <v>36.76955262170047</v>
+      </c>
+      <c r="P229" t="n">
         <v>0.0009910312089651166</v>
       </c>
     </row>
@@ -11163,6 +11530,9 @@
         <v>0</v>
       </c>
       <c r="O230" t="n">
+        <v>0.7071067811865476</v>
+      </c>
+      <c r="P230" t="n">
         <v>0.3819411884421101</v>
       </c>
     </row>
@@ -11209,7 +11579,8 @@
       <c r="N231" t="n">
         <v>0</v>
       </c>
-      <c r="O231" t="n">
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="n">
         <v>0.03407345007480164</v>
       </c>
     </row>
@@ -11257,6 +11628,9 @@
         <v>0</v>
       </c>
       <c r="O232" t="n">
+        <v>0.6102331521639905</v>
+      </c>
+      <c r="P232" t="n">
         <v>0.001195228609333944</v>
       </c>
     </row>
@@ -11303,7 +11677,8 @@
       <c r="N233" t="n">
         <v>0</v>
       </c>
-      <c r="O233" t="n">
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="n">
         <v>0.001751190071541816</v>
       </c>
     </row>
@@ -11350,7 +11725,8 @@
       <c r="N234" t="n">
         <v>0</v>
       </c>
-      <c r="O234" t="n">
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11397,7 +11773,8 @@
       <c r="N235" t="n">
         <v>0</v>
       </c>
-      <c r="O235" t="n">
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="n">
         <v>0.001751190071541814</v>
       </c>
     </row>
@@ -11444,7 +11821,8 @@
       <c r="N236" t="n">
         <v>0</v>
       </c>
-      <c r="O236" t="n">
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="n">
         <v>0.002233582075700114</v>
       </c>
     </row>
@@ -11491,7 +11869,8 @@
       <c r="N237" t="n">
         <v>0</v>
       </c>
-      <c r="O237" t="n">
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="n">
         <v>0.002359378449224874</v>
       </c>
     </row>
@@ -11538,7 +11917,8 @@
       <c r="N238" t="n">
         <v>0</v>
       </c>
-      <c r="O238" t="n">
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="n">
         <v>0.001173787790777109</v>
       </c>
     </row>
@@ -11585,7 +11965,8 @@
       <c r="N239" t="n">
         <v>0</v>
       </c>
-      <c r="O239" t="n">
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="n">
         <v>0.002674987019698666</v>
       </c>
     </row>
@@ -11632,7 +12013,8 @@
       <c r="N240" t="n">
         <v>0</v>
       </c>
-      <c r="O240" t="n">
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="n">
         <v>0.001702938636592865</v>
       </c>
     </row>
@@ -11679,7 +12061,8 @@
       <c r="N241" t="n">
         <v>0</v>
       </c>
-      <c r="O241" t="n">
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11726,7 +12109,8 @@
       <c r="N242" t="n">
         <v>0</v>
       </c>
-      <c r="O242" t="n">
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="n">
         <v>0.002057506581601441</v>
       </c>
     </row>
@@ -11773,7 +12157,8 @@
       <c r="N243" t="n">
         <v>0</v>
       </c>
-      <c r="O243" t="n">
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="n">
         <v>0.00105409255338945</v>
       </c>
     </row>
@@ -11820,7 +12205,8 @@
       <c r="N244" t="n">
         <v>0</v>
       </c>
-      <c r="O244" t="n">
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="n">
         <v>0.001766981104093146</v>
       </c>
     </row>
@@ -11867,7 +12253,8 @@
       <c r="N245" t="n">
         <v>0</v>
       </c>
-      <c r="O245" t="n">
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="n">
         <v>0.001837873166945466</v>
       </c>
     </row>
@@ -11914,7 +12301,8 @@
       <c r="N246" t="n">
         <v>0</v>
       </c>
-      <c r="O246" t="n">
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="n">
         <v>0.00218326971917498</v>
       </c>
     </row>
@@ -11962,6 +12350,9 @@
         <v>0</v>
       </c>
       <c r="O247" t="n">
+        <v>30.40559159102154</v>
+      </c>
+      <c r="P247" t="n">
         <v>0.001187734939165247</v>
       </c>
     </row>
@@ -12008,7 +12399,8 @@
       <c r="N248" t="n">
         <v>0</v>
       </c>
-      <c r="O248" t="n">
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12056,6 +12448,9 @@
         <v>0</v>
       </c>
       <c r="O249" t="n">
+        <v>28.99137802864845</v>
+      </c>
+      <c r="P249" t="n">
         <v>0.1937516820203486</v>
       </c>
     </row>
@@ -12102,7 +12497,8 @@
       <c r="N250" t="n">
         <v>0</v>
       </c>
-      <c r="O250" t="n">
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="n">
         <v>0.001855921454276674</v>
       </c>
     </row>
@@ -12149,7 +12545,8 @@
       <c r="N251" t="n">
         <v>0</v>
       </c>
-      <c r="O251" t="n">
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="n">
         <v>0.0144087164977007</v>
       </c>
     </row>
@@ -12196,7 +12593,8 @@
       <c r="N252" t="n">
         <v>0</v>
       </c>
-      <c r="O252" t="n">
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="n">
         <v>0.002529822128134749</v>
       </c>
     </row>
@@ -12243,7 +12641,8 @@
       <c r="N253" t="n">
         <v>0</v>
       </c>
-      <c r="O253" t="n">
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="n">
         <v>0.03109127065771233</v>
       </c>
     </row>
@@ -12291,6 +12690,9 @@
         <v>0</v>
       </c>
       <c r="O254" t="n">
+        <v>0.05374011537017703</v>
+      </c>
+      <c r="P254" t="n">
         <v>0.2128748794144444</v>
       </c>
     </row>
@@ -12337,7 +12739,8 @@
       <c r="N255" t="n">
         <v>0</v>
       </c>
-      <c r="O255" t="n">
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12384,7 +12787,8 @@
       <c r="N256" t="n">
         <v>0</v>
       </c>
-      <c r="O256" t="n">
+      <c r="O256" t="inlineStr"/>
+      <c r="P256" t="n">
         <v>0.002170509412813295</v>
       </c>
     </row>
@@ -12431,7 +12835,8 @@
       <c r="N257" t="n">
         <v>0</v>
       </c>
-      <c r="O257" t="n">
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="n">
         <v>0.001702938636592601</v>
       </c>
     </row>
@@ -12478,7 +12883,8 @@
       <c r="N258" t="n">
         <v>0</v>
       </c>
-      <c r="O258" t="n">
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="n">
         <v>0.001816467879032147</v>
       </c>
     </row>
@@ -12525,7 +12931,8 @@
       <c r="N259" t="n">
         <v>0</v>
       </c>
-      <c r="O259" t="n">
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="n">
         <v>0.001589898669028031</v>
       </c>
     </row>
@@ -12573,6 +12980,9 @@
         <v>0</v>
       </c>
       <c r="O260" t="n">
+        <v>0.003535533905932662</v>
+      </c>
+      <c r="P260" t="n">
         <v>0.001356202681860678</v>
       </c>
     </row>
@@ -12619,7 +13029,8 @@
       <c r="N261" t="n">
         <v>0</v>
       </c>
-      <c r="O261" t="n">
+      <c r="O261" t="inlineStr"/>
+      <c r="P261" t="n">
         <v>0.001092906420717029</v>
       </c>
     </row>
@@ -12666,7 +13077,10 @@
       <c r="N262" t="n">
         <v>0</v>
       </c>
-      <c r="O262" t="inlineStr"/>
+      <c r="O262" t="n">
+        <v>0</v>
+      </c>
+      <c r="P262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -12711,7 +13125,10 @@
       <c r="N263" t="n">
         <v>0</v>
       </c>
-      <c r="O263" t="inlineStr"/>
+      <c r="O263" t="n">
+        <v>0</v>
+      </c>
+      <c r="P263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -12756,7 +13173,10 @@
       <c r="N264" t="n">
         <v>0</v>
       </c>
-      <c r="O264" t="inlineStr"/>
+      <c r="O264" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -12801,7 +13221,10 @@
       <c r="N265" t="n">
         <v>0</v>
       </c>
-      <c r="O265" t="inlineStr"/>
+      <c r="O265" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -12846,7 +13269,10 @@
       <c r="N266" t="n">
         <v>0</v>
       </c>
-      <c r="O266" t="inlineStr"/>
+      <c r="O266" t="n">
+        <v>0</v>
+      </c>
+      <c r="P266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -12891,7 +13317,10 @@
       <c r="N267" t="n">
         <v>0</v>
       </c>
-      <c r="O267" t="inlineStr"/>
+      <c r="O267" t="n">
+        <v>0</v>
+      </c>
+      <c r="P267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -12937,6 +13366,9 @@
         <v>0</v>
       </c>
       <c r="O268" t="n">
+        <v>117.7286546366828</v>
+      </c>
+      <c r="P268" t="n">
         <v>0.0008164965809277268</v>
       </c>
     </row>
@@ -12983,7 +13415,8 @@
       <c r="N269" t="n">
         <v>0</v>
       </c>
-      <c r="O269" t="n">
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="n">
         <v>0.001286252092104984</v>
       </c>
     </row>
@@ -13030,7 +13463,8 @@
       <c r="N270" t="n">
         <v>0</v>
       </c>
-      <c r="O270" t="n">
+      <c r="O270" t="inlineStr"/>
+      <c r="P270" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13077,7 +13511,8 @@
       <c r="N271" t="n">
         <v>0</v>
       </c>
-      <c r="O271" t="n">
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="n">
         <v>0.001632993161855462</v>
       </c>
     </row>
@@ -13124,7 +13559,8 @@
       <c r="N272" t="n">
         <v>0</v>
       </c>
-      <c r="O272" t="n">
+      <c r="O272" t="inlineStr"/>
+      <c r="P272" t="n">
         <v>0.001922093765778447</v>
       </c>
     </row>
@@ -13171,7 +13607,8 @@
       <c r="N273" t="n">
         <v>0</v>
       </c>
-      <c r="O273" t="n">
+      <c r="O273" t="inlineStr"/>
+      <c r="P273" t="n">
         <v>0.001577621275493265</v>
       </c>
     </row>
@@ -13219,6 +13656,9 @@
         <v>0</v>
       </c>
       <c r="O274" t="n">
+        <v>2.996667148683684</v>
+      </c>
+      <c r="P274" t="n">
         <v>0.0004082482904639177</v>
       </c>
     </row>
@@ -13266,6 +13706,9 @@
         <v>0</v>
       </c>
       <c r="O275" t="n">
+        <v>0.002302172886644269</v>
+      </c>
+      <c r="P275" t="n">
         <v>0.0005477225575052359</v>
       </c>
     </row>
@@ -13313,6 +13756,9 @@
         <v>0</v>
       </c>
       <c r="O276" t="n">
+        <v>0.0005773502691895622</v>
+      </c>
+      <c r="P276" t="n">
         <v>0.001722401424368543</v>
       </c>
     </row>
@@ -13359,7 +13805,10 @@
       <c r="N277" t="n">
         <v>0</v>
       </c>
-      <c r="O277" t="inlineStr"/>
+      <c r="O277" t="n">
+        <v>0</v>
+      </c>
+      <c r="P277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -13404,7 +13853,10 @@
       <c r="N278" t="n">
         <v>0</v>
       </c>
-      <c r="O278" t="inlineStr"/>
+      <c r="O278" t="n">
+        <v>0</v>
+      </c>
+      <c r="P278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -13449,7 +13901,10 @@
       <c r="N279" t="n">
         <v>0</v>
       </c>
-      <c r="O279" t="inlineStr"/>
+      <c r="O279" t="n">
+        <v>0</v>
+      </c>
+      <c r="P279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -13494,7 +13949,10 @@
       <c r="N280" t="n">
         <v>0</v>
       </c>
-      <c r="O280" t="inlineStr"/>
+      <c r="O280" t="n">
+        <v>0</v>
+      </c>
+      <c r="P280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -13539,7 +13997,10 @@
       <c r="N281" t="n">
         <v>0</v>
       </c>
-      <c r="O281" t="inlineStr"/>
+      <c r="O281" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -13584,7 +14045,10 @@
       <c r="N282" t="n">
         <v>0</v>
       </c>
-      <c r="O282" t="inlineStr"/>
+      <c r="O282" t="n">
+        <v>0</v>
+      </c>
+      <c r="P282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -13629,7 +14093,10 @@
       <c r="N283" t="n">
         <v>0</v>
       </c>
-      <c r="O283" t="inlineStr"/>
+      <c r="O283" t="n">
+        <v>0</v>
+      </c>
+      <c r="P283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -13674,7 +14141,10 @@
       <c r="N284" t="n">
         <v>0</v>
       </c>
-      <c r="O284" t="inlineStr"/>
+      <c r="O284" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -13719,7 +14189,10 @@
       <c r="N285" t="n">
         <v>0</v>
       </c>
-      <c r="O285" t="inlineStr"/>
+      <c r="O285" t="n">
+        <v>0</v>
+      </c>
+      <c r="P285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -13764,7 +14237,8 @@
       <c r="N286" t="n">
         <v>0</v>
       </c>
-      <c r="O286" t="n">
+      <c r="O286" t="inlineStr"/>
+      <c r="P286" t="n">
         <v>0.0013984117975602</v>
       </c>
     </row>
@@ -13811,7 +14285,8 @@
       <c r="N287" t="n">
         <v>0</v>
       </c>
-      <c r="O287" t="n">
+      <c r="O287" t="inlineStr"/>
+      <c r="P287" t="n">
         <v>0.001509230856356241</v>
       </c>
     </row>
@@ -13858,7 +14333,8 @@
       <c r="N288" t="n">
         <v>0</v>
       </c>
-      <c r="O288" t="n">
+      <c r="O288" t="inlineStr"/>
+      <c r="P288" t="n">
         <v>0.001370320319406344</v>
       </c>
     </row>
@@ -13905,7 +14381,8 @@
       <c r="N289" t="n">
         <v>0</v>
       </c>
-      <c r="O289" t="n">
+      <c r="O289" t="inlineStr"/>
+      <c r="P289" t="n">
         <v>0.001523883926755024</v>
       </c>
     </row>
@@ -13952,7 +14429,8 @@
       <c r="N290" t="n">
         <v>0</v>
       </c>
-      <c r="O290" t="n">
+      <c r="O290" t="inlineStr"/>
+      <c r="P290" t="n">
         <v>0.002121320343559969</v>
       </c>
     </row>
@@ -13999,7 +14477,8 @@
       <c r="N291" t="n">
         <v>0</v>
       </c>
-      <c r="O291" t="n">
+      <c r="O291" t="inlineStr"/>
+      <c r="P291" t="n">
         <v>0.001523883926755039</v>
       </c>
     </row>
@@ -14046,7 +14525,10 @@
       <c r="N292" t="n">
         <v>0</v>
       </c>
-      <c r="O292" t="inlineStr"/>
+      <c r="O292" t="n">
+        <v>0</v>
+      </c>
+      <c r="P292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -14091,7 +14573,10 @@
       <c r="N293" t="n">
         <v>0</v>
       </c>
-      <c r="O293" t="inlineStr"/>
+      <c r="O293" t="n">
+        <v>0</v>
+      </c>
+      <c r="P293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -14136,7 +14621,10 @@
       <c r="N294" t="n">
         <v>0</v>
       </c>
-      <c r="O294" t="inlineStr"/>
+      <c r="O294" t="n">
+        <v>0</v>
+      </c>
+      <c r="P294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -14181,7 +14669,10 @@
       <c r="N295" t="n">
         <v>0</v>
       </c>
-      <c r="O295" t="inlineStr"/>
+      <c r="O295" t="n">
+        <v>0</v>
+      </c>
+      <c r="P295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -14226,7 +14717,10 @@
       <c r="N296" t="n">
         <v>0</v>
       </c>
-      <c r="O296" t="inlineStr"/>
+      <c r="O296" t="n">
+        <v>0</v>
+      </c>
+      <c r="P296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -14271,7 +14765,10 @@
       <c r="N297" t="n">
         <v>0</v>
       </c>
-      <c r="O297" t="inlineStr"/>
+      <c r="O297" t="n">
+        <v>0</v>
+      </c>
+      <c r="P297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -14316,7 +14813,8 @@
       <c r="N298" t="n">
         <v>0</v>
       </c>
-      <c r="O298" t="n">
+      <c r="O298" t="inlineStr"/>
+      <c r="P298" t="n">
         <v>0.00115470053837923</v>
       </c>
     </row>
@@ -14363,7 +14861,8 @@
       <c r="N299" t="n">
         <v>0</v>
       </c>
-      <c r="O299" t="n">
+      <c r="O299" t="inlineStr"/>
+      <c r="P299" t="n">
         <v>0.001897366596101018</v>
       </c>
     </row>
@@ -14410,7 +14909,10 @@
       <c r="N300" t="n">
         <v>0</v>
       </c>
-      <c r="O300" t="inlineStr"/>
+      <c r="O300" t="n">
+        <v>0</v>
+      </c>
+      <c r="P300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -14455,7 +14957,8 @@
       <c r="N301" t="n">
         <v>0</v>
       </c>
-      <c r="O301" t="n">
+      <c r="O301" t="inlineStr"/>
+      <c r="P301" t="n">
         <v>0.001509230856356232</v>
       </c>
     </row>
@@ -14503,6 +15006,9 @@
         <v>0</v>
       </c>
       <c r="O302" t="n">
+        <v>5.656854249492381</v>
+      </c>
+      <c r="P302" t="n">
         <v>0.3535566230666394</v>
       </c>
     </row>
@@ -14550,6 +15056,9 @@
         <v>0</v>
       </c>
       <c r="O303" t="n">
+        <v>18.75207565399984</v>
+      </c>
+      <c r="P303" t="n">
         <v>0.001704336206492796</v>
       </c>
     </row>
@@ -14596,7 +15105,8 @@
       <c r="N304" t="n">
         <v>0</v>
       </c>
-      <c r="O304" t="n">
+      <c r="O304" t="inlineStr"/>
+      <c r="P304" t="n">
         <v>0.314088407582607</v>
       </c>
     </row>
@@ -14643,7 +15153,8 @@
       <c r="N305" t="n">
         <v>0</v>
       </c>
-      <c r="O305" t="n">
+      <c r="O305" t="inlineStr"/>
+      <c r="P305" t="n">
         <v>0.001870828693387136</v>
       </c>
     </row>
@@ -14690,7 +15201,8 @@
       <c r="N306" t="n">
         <v>0</v>
       </c>
-      <c r="O306" t="n">
+      <c r="O306" t="inlineStr"/>
+      <c r="P306" t="n">
         <v>0.001251665557034894</v>
       </c>
     </row>
@@ -14737,7 +15249,10 @@
       <c r="N307" t="n">
         <v>0</v>
       </c>
-      <c r="O307" t="inlineStr"/>
+      <c r="O307" t="n">
+        <v>0</v>
+      </c>
+      <c r="P307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -14782,7 +15297,10 @@
       <c r="N308" t="n">
         <v>0</v>
       </c>
-      <c r="O308" t="inlineStr"/>
+      <c r="O308" t="n">
+        <v>0</v>
+      </c>
+      <c r="P308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -14827,7 +15345,10 @@
       <c r="N309" t="n">
         <v>0</v>
       </c>
-      <c r="O309" t="inlineStr"/>
+      <c r="O309" t="n">
+        <v>0</v>
+      </c>
+      <c r="P309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -14872,7 +15393,10 @@
       <c r="N310" t="n">
         <v>0</v>
       </c>
-      <c r="O310" t="inlineStr"/>
+      <c r="O310" t="n">
+        <v>0</v>
+      </c>
+      <c r="P310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -14917,7 +15441,10 @@
       <c r="N311" t="n">
         <v>0</v>
       </c>
-      <c r="O311" t="inlineStr"/>
+      <c r="O311" t="n">
+        <v>0</v>
+      </c>
+      <c r="P311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -14962,7 +15489,10 @@
       <c r="N312" t="n">
         <v>0</v>
       </c>
-      <c r="O312" t="inlineStr"/>
+      <c r="O312" t="n">
+        <v>0</v>
+      </c>
+      <c r="P312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -15007,7 +15537,8 @@
       <c r="N313" t="n">
         <v>0</v>
       </c>
-      <c r="O313" t="n">
+      <c r="O313" t="inlineStr"/>
+      <c r="P313" t="n">
         <v>0.0011352924243951</v>
       </c>
     </row>
@@ -15054,7 +15585,8 @@
       <c r="N314" t="n">
         <v>0</v>
       </c>
-      <c r="O314" t="n">
+      <c r="O314" t="inlineStr"/>
+      <c r="P314" t="n">
         <v>0.001728840330651996</v>
       </c>
     </row>
@@ -15101,7 +15633,10 @@
       <c r="N315" t="n">
         <v>0</v>
       </c>
-      <c r="O315" t="inlineStr"/>
+      <c r="O315" t="n">
+        <v>0</v>
+      </c>
+      <c r="P315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -15146,7 +15681,8 @@
       <c r="N316" t="n">
         <v>0</v>
       </c>
-      <c r="O316" t="n">
+      <c r="O316" t="inlineStr"/>
+      <c r="P316" t="n">
         <v>0.001264911064067342</v>
       </c>
     </row>
@@ -15193,7 +15729,8 @@
       <c r="N317" t="n">
         <v>0</v>
       </c>
-      <c r="O317" t="n">
+      <c r="O317" t="inlineStr"/>
+      <c r="P317" t="n">
         <v>0.001646545204697129</v>
       </c>
     </row>
@@ -15240,7 +15777,8 @@
       <c r="N318" t="n">
         <v>0</v>
       </c>
-      <c r="O318" t="n">
+      <c r="O318" t="inlineStr"/>
+      <c r="P318" t="n">
         <v>0.3491727525324838</v>
       </c>
     </row>
@@ -15288,6 +15826,9 @@
         <v>0</v>
       </c>
       <c r="O319" t="n">
+        <v>0.654780879378743</v>
+      </c>
+      <c r="P319" t="n">
         <v>0.001246423454758252</v>
       </c>
     </row>
@@ -15334,7 +15875,8 @@
       <c r="N320" t="n">
         <v>0</v>
       </c>
-      <c r="O320" t="n">
+      <c r="O320" t="inlineStr"/>
+      <c r="P320" t="n">
         <v>0.001360718764313569</v>
       </c>
     </row>
@@ -15382,6 +15924,9 @@
         <v>0</v>
       </c>
       <c r="O321" t="n">
+        <v>94.656142156756</v>
+      </c>
+      <c r="P321" t="n">
         <v>0.001407885953173282</v>
       </c>
     </row>
@@ -15429,6 +15974,9 @@
         <v>0</v>
       </c>
       <c r="O322" t="n">
+        <v>3.401680257083045</v>
+      </c>
+      <c r="P322" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15475,7 +16023,10 @@
       <c r="N323" t="n">
         <v>0</v>
       </c>
-      <c r="O323" t="inlineStr"/>
+      <c r="O323" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -15520,7 +16071,10 @@
       <c r="N324" t="n">
         <v>0</v>
       </c>
-      <c r="O324" t="inlineStr"/>
+      <c r="O324" t="n">
+        <v>0</v>
+      </c>
+      <c r="P324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -15565,7 +16119,10 @@
       <c r="N325" t="n">
         <v>0</v>
       </c>
-      <c r="O325" t="inlineStr"/>
+      <c r="O325" t="n">
+        <v>0</v>
+      </c>
+      <c r="P325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -15610,7 +16167,10 @@
       <c r="N326" t="n">
         <v>0</v>
       </c>
-      <c r="O326" t="inlineStr"/>
+      <c r="O326" t="n">
+        <v>0</v>
+      </c>
+      <c r="P326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -15655,7 +16215,8 @@
       <c r="N327" t="n">
         <v>0</v>
       </c>
-      <c r="O327" t="n">
+      <c r="O327" t="inlineStr"/>
+      <c r="P327" t="n">
         <v>0.00162426051550305</v>
       </c>
     </row>
@@ -15702,7 +16263,8 @@
       <c r="N328" t="n">
         <v>0</v>
       </c>
-      <c r="O328" t="n">
+      <c r="O328" t="inlineStr"/>
+      <c r="P328" t="n">
         <v>0.001459109317357682</v>
       </c>
     </row>
@@ -15749,7 +16311,8 @@
       <c r="N329" t="n">
         <v>0</v>
       </c>
-      <c r="O329" t="n">
+      <c r="O329" t="inlineStr"/>
+      <c r="P329" t="n">
         <v>0.001658312395177707</v>
       </c>
     </row>
@@ -15799,6 +16362,9 @@
       <c r="O330" t="n">
         <v>0</v>
       </c>
+      <c r="P330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -15843,7 +16409,8 @@
       <c r="N331" t="n">
         <v>0</v>
       </c>
-      <c r="O331" t="n">
+      <c r="O331" t="inlineStr"/>
+      <c r="P331" t="n">
         <v>0.1386227895325216</v>
       </c>
     </row>
@@ -15890,7 +16457,8 @@
       <c r="N332" t="n">
         <v>0</v>
       </c>
-      <c r="O332" t="n">
+      <c r="O332" t="inlineStr"/>
+      <c r="P332" t="n">
         <v>0.001636391694484454</v>
       </c>
     </row>
@@ -15937,7 +16505,8 @@
       <c r="N333" t="n">
         <v>0</v>
       </c>
-      <c r="O333" t="n">
+      <c r="O333" t="inlineStr"/>
+      <c r="P333" t="n">
         <v>0.001505545305418353</v>
       </c>
     </row>
@@ -15984,7 +16553,8 @@
       <c r="N334" t="n">
         <v>0</v>
       </c>
-      <c r="O334" t="n">
+      <c r="O334" t="inlineStr"/>
+      <c r="P334" t="n">
         <v>0.001779388159515119</v>
       </c>
     </row>
@@ -16031,7 +16601,8 @@
       <c r="N335" t="n">
         <v>0</v>
       </c>
-      <c r="O335" t="n">
+      <c r="O335" t="inlineStr"/>
+      <c r="P335" t="n">
         <v>0.001449137674618603</v>
       </c>
     </row>
@@ -16078,7 +16649,8 @@
       <c r="N336" t="n">
         <v>0</v>
       </c>
-      <c r="O336" t="n">
+      <c r="O336" t="inlineStr"/>
+      <c r="P336" t="n">
         <v>0.002386303510546045</v>
       </c>
     </row>
@@ -16125,7 +16697,10 @@
       <c r="N337" t="n">
         <v>0</v>
       </c>
-      <c r="O337" t="inlineStr"/>
+      <c r="O337" t="n">
+        <v>0</v>
+      </c>
+      <c r="P337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -16170,7 +16745,10 @@
       <c r="N338" t="n">
         <v>0</v>
       </c>
-      <c r="O338" t="inlineStr"/>
+      <c r="O338" t="n">
+        <v>0</v>
+      </c>
+      <c r="P338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -16215,7 +16793,10 @@
       <c r="N339" t="n">
         <v>0</v>
       </c>
-      <c r="O339" t="inlineStr"/>
+      <c r="O339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -16260,7 +16841,10 @@
       <c r="N340" t="n">
         <v>0</v>
       </c>
-      <c r="O340" t="inlineStr"/>
+      <c r="O340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -16305,7 +16889,10 @@
       <c r="N341" t="n">
         <v>0</v>
       </c>
-      <c r="O341" t="inlineStr"/>
+      <c r="O341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -16350,7 +16937,8 @@
       <c r="N342" t="n">
         <v>0</v>
       </c>
-      <c r="O342" t="n">
+      <c r="O342" t="inlineStr"/>
+      <c r="P342" t="n">
         <v>0.001236033081182612</v>
       </c>
     </row>
@@ -16397,7 +16985,8 @@
       <c r="N343" t="n">
         <v>0</v>
       </c>
-      <c r="O343" t="n">
+      <c r="O343" t="inlineStr"/>
+      <c r="P343" t="n">
         <v>0.002368778400591993</v>
       </c>
     </row>
@@ -16444,7 +17033,8 @@
       <c r="N344" t="n">
         <v>0</v>
       </c>
-      <c r="O344" t="n">
+      <c r="O344" t="inlineStr"/>
+      <c r="P344" t="n">
         <v>0.0006666666666666568</v>
       </c>
     </row>
@@ -16491,7 +17081,8 @@
       <c r="N345" t="n">
         <v>0</v>
       </c>
-      <c r="O345" t="n">
+      <c r="O345" t="inlineStr"/>
+      <c r="P345" t="n">
         <v>0.001449137674618993</v>
       </c>
     </row>
@@ -16538,7 +17129,8 @@
       <c r="N346" t="n">
         <v>0</v>
       </c>
-      <c r="O346" t="n">
+      <c r="O346" t="inlineStr"/>
+      <c r="P346" t="n">
         <v>0.001509230856356191</v>
       </c>
     </row>
@@ -16585,7 +17177,8 @@
       <c r="N347" t="n">
         <v>0</v>
       </c>
-      <c r="O347" t="n">
+      <c r="O347" t="inlineStr"/>
+      <c r="P347" t="n">
         <v>0.001505545305418131</v>
       </c>
     </row>
@@ -16632,7 +17225,8 @@
       <c r="N348" t="n">
         <v>0</v>
       </c>
-      <c r="O348" t="n">
+      <c r="O348" t="inlineStr"/>
+      <c r="P348" t="n">
         <v>0.00113529242439516</v>
       </c>
     </row>
@@ -16679,7 +17273,8 @@
       <c r="N349" t="n">
         <v>0</v>
       </c>
-      <c r="O349" t="n">
+      <c r="O349" t="inlineStr"/>
+      <c r="P349" t="n">
         <v>0.001286683937707942</v>
       </c>
     </row>
@@ -16726,7 +17321,8 @@
       <c r="N350" t="n">
         <v>0</v>
       </c>
-      <c r="O350" t="n">
+      <c r="O350" t="inlineStr"/>
+      <c r="P350" t="n">
         <v>0.001074967699773131</v>
       </c>
     </row>
@@ -16773,7 +17369,8 @@
       <c r="N351" t="n">
         <v>0</v>
       </c>
-      <c r="O351" t="n">
+      <c r="O351" t="inlineStr"/>
+      <c r="P351" t="n">
         <v>0.00107496769977321</v>
       </c>
     </row>
@@ -16820,7 +17417,8 @@
       <c r="N352" t="n">
         <v>0</v>
       </c>
-      <c r="O352" t="n">
+      <c r="O352" t="inlineStr"/>
+      <c r="P352" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16867,7 +17465,8 @@
       <c r="N353" t="n">
         <v>0</v>
       </c>
-      <c r="O353" t="n">
+      <c r="O353" t="inlineStr"/>
+      <c r="P353" t="n">
         <v>0.001911950719959995</v>
       </c>
     </row>
@@ -16914,7 +17513,8 @@
       <c r="N354" t="n">
         <v>0</v>
       </c>
-      <c r="O354" t="n">
+      <c r="O354" t="inlineStr"/>
+      <c r="P354" t="n">
         <v>0.001663329993316589</v>
       </c>
     </row>
@@ -16961,7 +17561,8 @@
       <c r="N355" t="n">
         <v>0</v>
       </c>
-      <c r="O355" t="n">
+      <c r="O355" t="inlineStr"/>
+      <c r="P355" t="n">
         <v>0.001779513042005237</v>
       </c>
     </row>
@@ -17008,7 +17609,8 @@
       <c r="N356" t="n">
         <v>0</v>
       </c>
-      <c r="O356" t="n">
+      <c r="O356" t="inlineStr"/>
+      <c r="P356" t="n">
         <v>0.0009718253158075287</v>
       </c>
     </row>
@@ -17055,7 +17657,8 @@
       <c r="N357" t="n">
         <v>0</v>
       </c>
-      <c r="O357" t="n">
+      <c r="O357" t="inlineStr"/>
+      <c r="P357" t="n">
         <v>0.001264911064067492</v>
       </c>
     </row>
@@ -17102,7 +17705,8 @@
       <c r="N358" t="n">
         <v>0</v>
       </c>
-      <c r="O358" t="n">
+      <c r="O358" t="inlineStr"/>
+      <c r="P358" t="n">
         <v>0.001059349905471464</v>
       </c>
     </row>
@@ -17149,7 +17753,8 @@
       <c r="N359" t="n">
         <v>0</v>
       </c>
-      <c r="O359" t="n">
+      <c r="O359" t="inlineStr"/>
+      <c r="P359" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17197,6 +17802,9 @@
         <v>0</v>
       </c>
       <c r="O360" t="n">
+        <v>2.121320343559642</v>
+      </c>
+      <c r="P360" t="n">
         <v>0.0009910312089651183</v>
       </c>
     </row>
@@ -17244,6 +17852,9 @@
         <v>0</v>
       </c>
       <c r="O361" t="n">
+        <v>704.2783540618013</v>
+      </c>
+      <c r="P361" t="n">
         <v>0.001414213562373031</v>
       </c>
     </row>
@@ -17290,7 +17901,8 @@
       <c r="N362" t="n">
         <v>0</v>
       </c>
-      <c r="O362" t="n">
+      <c r="O362" t="inlineStr"/>
+      <c r="P362" t="n">
         <v>0.001646545204697193</v>
       </c>
     </row>
@@ -17337,7 +17949,8 @@
       <c r="N363" t="n">
         <v>0</v>
       </c>
-      <c r="O363" t="n">
+      <c r="O363" t="inlineStr"/>
+      <c r="P363" t="n">
         <v>0.001269295517644016</v>
       </c>
     </row>
@@ -17384,7 +17997,8 @@
       <c r="N364" t="n">
         <v>0</v>
       </c>
-      <c r="O364" t="n">
+      <c r="O364" t="inlineStr"/>
+      <c r="P364" t="n">
         <v>0.001418136492412053</v>
       </c>
     </row>
@@ -17431,7 +18045,8 @@
       <c r="N365" t="n">
         <v>0</v>
       </c>
-      <c r="O365" t="n">
+      <c r="O365" t="inlineStr"/>
+      <c r="P365" t="n">
         <v>0.001130388330520757</v>
       </c>
     </row>
@@ -17478,7 +18093,8 @@
       <c r="N366" t="n">
         <v>0</v>
       </c>
-      <c r="O366" t="n">
+      <c r="O366" t="inlineStr"/>
+      <c r="P366" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17525,7 +18141,8 @@
       <c r="N367" t="n">
         <v>0</v>
       </c>
-      <c r="O367" t="n">
+      <c r="O367" t="inlineStr"/>
+      <c r="P367" t="n">
         <v>0.001922093765778459</v>
       </c>
     </row>
@@ -17572,7 +18189,8 @@
       <c r="N368" t="n">
         <v>0</v>
       </c>
-      <c r="O368" t="n">
+      <c r="O368" t="inlineStr"/>
+      <c r="P368" t="n">
         <v>0.00141813649241218</v>
       </c>
     </row>
@@ -17619,7 +18237,8 @@
       <c r="N369" t="n">
         <v>0</v>
       </c>
-      <c r="O369" t="n">
+      <c r="O369" t="inlineStr"/>
+      <c r="P369" t="n">
         <v>0.001813529401164707</v>
       </c>
     </row>
@@ -17666,7 +18285,8 @@
       <c r="N370" t="n">
         <v>0</v>
       </c>
-      <c r="O370" t="n">
+      <c r="O370" t="inlineStr"/>
+      <c r="P370" t="n">
         <v>0.001658312395177769</v>
       </c>
     </row>
@@ -17713,7 +18333,8 @@
       <c r="N371" t="n">
         <v>0</v>
       </c>
-      <c r="O371" t="n">
+      <c r="O371" t="inlineStr"/>
+      <c r="P371" t="n">
         <v>0.001523883926754888</v>
       </c>
     </row>
@@ -17760,7 +18381,8 @@
       <c r="N372" t="n">
         <v>0</v>
       </c>
-      <c r="O372" t="n">
+      <c r="O372" t="inlineStr"/>
+      <c r="P372" t="n">
         <v>0.002147349787787264</v>
       </c>
     </row>
@@ -17807,7 +18429,8 @@
       <c r="N373" t="n">
         <v>0</v>
       </c>
-      <c r="O373" t="n">
+      <c r="O373" t="inlineStr"/>
+      <c r="P373" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17854,7 +18477,8 @@
       <c r="N374" t="n">
         <v>0</v>
       </c>
-      <c r="O374" t="n">
+      <c r="O374" t="inlineStr"/>
+      <c r="P374" t="n">
         <v>0.001499999999999997</v>
       </c>
     </row>
@@ -17901,7 +18525,8 @@
       <c r="N375" t="n">
         <v>0</v>
       </c>
-      <c r="O375" t="n">
+      <c r="O375" t="inlineStr"/>
+      <c r="P375" t="n">
         <v>0.001632993161855446</v>
       </c>
     </row>
@@ -17948,7 +18573,8 @@
       <c r="N376" t="n">
         <v>0</v>
       </c>
-      <c r="O376" t="n">
+      <c r="O376" t="inlineStr"/>
+      <c r="P376" t="n">
         <v>0.001366910547345602</v>
       </c>
     </row>
@@ -17995,7 +18621,8 @@
       <c r="N377" t="n">
         <v>0</v>
       </c>
-      <c r="O377" t="n">
+      <c r="O377" t="inlineStr"/>
+      <c r="P377" t="n">
         <v>0.00158113883008406</v>
       </c>
     </row>
@@ -18042,7 +18669,8 @@
       <c r="N378" t="n">
         <v>0</v>
       </c>
-      <c r="O378" t="n">
+      <c r="O378" t="inlineStr"/>
+      <c r="P378" t="n">
         <v>0.001251665557034448</v>
       </c>
     </row>
@@ -18089,7 +18717,8 @@
       <c r="N379" t="n">
         <v>0</v>
       </c>
-      <c r="O379" t="n">
+      <c r="O379" t="inlineStr"/>
+      <c r="P379" t="n">
         <v>0.001732050807568868</v>
       </c>
     </row>
@@ -18136,7 +18765,8 @@
       <c r="N380" t="n">
         <v>0</v>
       </c>
-      <c r="O380" t="n">
+      <c r="O380" t="inlineStr"/>
+      <c r="P380" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18183,7 +18813,8 @@
       <c r="N381" t="n">
         <v>0</v>
       </c>
-      <c r="O381" t="n">
+      <c r="O381" t="inlineStr"/>
+      <c r="P381" t="n">
         <v>0.001229272594305712</v>
       </c>
     </row>
@@ -18230,7 +18861,8 @@
       <c r="N382" t="n">
         <v>0</v>
       </c>
-      <c r="O382" t="n">
+      <c r="O382" t="inlineStr"/>
+      <c r="P382" t="n">
         <v>0.0009944289260117361</v>
       </c>
     </row>
@@ -18277,7 +18909,8 @@
       <c r="N383" t="n">
         <v>0</v>
       </c>
-      <c r="O383" t="n">
+      <c r="O383" t="inlineStr"/>
+      <c r="P383" t="n">
         <v>0.001316561177208721</v>
       </c>
     </row>
@@ -18324,7 +18957,8 @@
       <c r="N384" t="n">
         <v>0</v>
       </c>
-      <c r="O384" t="n">
+      <c r="O384" t="inlineStr"/>
+      <c r="P384" t="n">
         <v>0.001449137674618952</v>
       </c>
     </row>
@@ -18371,7 +19005,8 @@
       <c r="N385" t="n">
         <v>0</v>
       </c>
-      <c r="O385" t="n">
+      <c r="O385" t="inlineStr"/>
+      <c r="P385" t="n">
         <v>0.001837873166945267</v>
       </c>
     </row>
@@ -18418,7 +19053,8 @@
       <c r="N386" t="n">
         <v>0</v>
       </c>
-      <c r="O386" t="n">
+      <c r="O386" t="inlineStr"/>
+      <c r="P386" t="n">
         <v>0.0009944289260117513</v>
       </c>
     </row>
@@ -18466,6 +19102,9 @@
         <v>0</v>
       </c>
       <c r="O387" t="n">
+        <v>6.363961030678928</v>
+      </c>
+      <c r="P387" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18512,7 +19151,8 @@
       <c r="N388" t="n">
         <v>0</v>
       </c>
-      <c r="O388" t="n">
+      <c r="O388" t="inlineStr"/>
+      <c r="P388" t="n">
         <v>0.001449137674618972</v>
       </c>
     </row>
@@ -18559,7 +19199,8 @@
       <c r="N389" t="n">
         <v>0</v>
       </c>
-      <c r="O389" t="n">
+      <c r="O389" t="inlineStr"/>
+      <c r="P389" t="n">
         <v>0.001751190071541808</v>
       </c>
     </row>
@@ -18606,7 +19247,8 @@
       <c r="N390" t="n">
         <v>0</v>
       </c>
-      <c r="O390" t="n">
+      <c r="O390" t="inlineStr"/>
+      <c r="P390" t="n">
         <v>0.00141813649241212</v>
       </c>
     </row>
@@ -18653,7 +19295,8 @@
       <c r="N391" t="n">
         <v>0</v>
       </c>
-      <c r="O391" t="n">
+      <c r="O391" t="inlineStr"/>
+      <c r="P391" t="n">
         <v>0.001229272594305795</v>
       </c>
     </row>
@@ -18700,7 +19343,8 @@
       <c r="N392" t="n">
         <v>0</v>
       </c>
-      <c r="O392" t="n">
+      <c r="O392" t="inlineStr"/>
+      <c r="P392" t="n">
         <v>0.00128668393770799</v>
       </c>
     </row>
@@ -18747,7 +19391,8 @@
       <c r="N393" t="n">
         <v>0</v>
       </c>
-      <c r="O393" t="n">
+      <c r="O393" t="inlineStr"/>
+      <c r="P393" t="n">
         <v>0.001429840705968992</v>
       </c>
     </row>
@@ -18794,7 +19439,8 @@
       <c r="N394" t="n">
         <v>0</v>
       </c>
-      <c r="O394" t="n">
+      <c r="O394" t="inlineStr"/>
+      <c r="P394" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18841,7 +19487,8 @@
       <c r="N395" t="n">
         <v>0</v>
       </c>
-      <c r="O395" t="n">
+      <c r="O395" t="inlineStr"/>
+      <c r="P395" t="n">
         <v>0.0009944289260117528</v>
       </c>
     </row>
@@ -18888,7 +19535,8 @@
       <c r="N396" t="n">
         <v>0</v>
       </c>
-      <c r="O396" t="n">
+      <c r="O396" t="inlineStr"/>
+      <c r="P396" t="n">
         <v>0.001712697677155365</v>
       </c>
     </row>
@@ -18935,7 +19583,8 @@
       <c r="N397" t="n">
         <v>0</v>
       </c>
-      <c r="O397" t="n">
+      <c r="O397" t="inlineStr"/>
+      <c r="P397" t="n">
         <v>0.0009660917830794475</v>
       </c>
     </row>
@@ -18982,7 +19631,8 @@
       <c r="N398" t="n">
         <v>0</v>
       </c>
-      <c r="O398" t="n">
+      <c r="O398" t="inlineStr"/>
+      <c r="P398" t="n">
         <v>0.001418136492412191</v>
       </c>
     </row>
@@ -19029,7 +19679,8 @@
       <c r="N399" t="n">
         <v>0</v>
       </c>
-      <c r="O399" t="n">
+      <c r="O399" t="inlineStr"/>
+      <c r="P399" t="n">
         <v>0.001229272594305354</v>
       </c>
     </row>
@@ -19076,7 +19727,8 @@
       <c r="N400" t="n">
         <v>0</v>
       </c>
-      <c r="O400" t="n">
+      <c r="O400" t="inlineStr"/>
+      <c r="P400" t="n">
         <v>0.002110818693199023</v>
       </c>
     </row>
@@ -19123,7 +19775,8 @@
       <c r="N401" t="n">
         <v>0</v>
       </c>
-      <c r="O401" t="n">
+      <c r="O401" t="inlineStr"/>
+      <c r="P401" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19170,7 +19823,8 @@
       <c r="N402" t="n">
         <v>0</v>
       </c>
-      <c r="O402" t="n">
+      <c r="O402" t="inlineStr"/>
+      <c r="P402" t="n">
         <v>0.001581138830084185</v>
       </c>
     </row>
@@ -19217,7 +19871,8 @@
       <c r="N403" t="n">
         <v>0</v>
       </c>
-      <c r="O403" t="n">
+      <c r="O403" t="inlineStr"/>
+      <c r="P403" t="n">
         <v>0.001646545204697146</v>
       </c>
     </row>
@@ -19264,7 +19919,8 @@
       <c r="N404" t="n">
         <v>0</v>
       </c>
-      <c r="O404" t="n">
+      <c r="O404" t="inlineStr"/>
+      <c r="P404" t="n">
         <v>0.0182135480709645</v>
       </c>
     </row>
@@ -19311,7 +19967,8 @@
       <c r="N405" t="n">
         <v>0</v>
       </c>
-      <c r="O405" t="n">
+      <c r="O405" t="inlineStr"/>
+      <c r="P405" t="n">
         <v>0.001663329993316674</v>
       </c>
     </row>
@@ -19358,7 +20015,8 @@
       <c r="N406" t="n">
         <v>0</v>
       </c>
-      <c r="O406" t="n">
+      <c r="O406" t="inlineStr"/>
+      <c r="P406" t="n">
         <v>0.04107937438666777</v>
       </c>
     </row>
@@ -19405,7 +20063,8 @@
       <c r="N407" t="n">
         <v>0</v>
       </c>
-      <c r="O407" t="n">
+      <c r="O407" t="inlineStr"/>
+      <c r="P407" t="n">
         <v>0.2268102731359405</v>
       </c>
     </row>
@@ -19452,7 +20111,8 @@
       <c r="N408" t="n">
         <v>0</v>
       </c>
-      <c r="O408" t="n">
+      <c r="O408" t="inlineStr"/>
+      <c r="P408" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19499,7 +20159,8 @@
       <c r="N409" t="n">
         <v>0</v>
       </c>
-      <c r="O409" t="n">
+      <c r="O409" t="inlineStr"/>
+      <c r="P409" t="n">
         <v>0.001130388330520881</v>
       </c>
     </row>
@@ -19546,7 +20207,8 @@
       <c r="N410" t="n">
         <v>0</v>
       </c>
-      <c r="O410" t="n">
+      <c r="O410" t="inlineStr"/>
+      <c r="P410" t="n">
         <v>0.001563471919941127</v>
       </c>
     </row>
@@ -19593,7 +20255,8 @@
       <c r="N411" t="n">
         <v>0</v>
       </c>
-      <c r="O411" t="n">
+      <c r="O411" t="inlineStr"/>
+      <c r="P411" t="n">
         <v>0.001292886520757023</v>
       </c>
     </row>
@@ -19640,7 +20303,8 @@
       <c r="N412" t="n">
         <v>0</v>
       </c>
-      <c r="O412" t="n">
+      <c r="O412" t="inlineStr"/>
+      <c r="P412" t="n">
         <v>0.002412928142780684</v>
       </c>
     </row>
@@ -19687,7 +20351,8 @@
       <c r="N413" t="n">
         <v>0</v>
       </c>
-      <c r="O413" t="n">
+      <c r="O413" t="inlineStr"/>
+      <c r="P413" t="n">
         <v>0.001429840705968258</v>
       </c>
     </row>
@@ -19734,7 +20399,8 @@
       <c r="N414" t="n">
         <v>0</v>
       </c>
-      <c r="O414" t="n">
+      <c r="O414" t="inlineStr"/>
+      <c r="P414" t="n">
         <v>0.001484138358330058</v>
       </c>
     </row>
@@ -19781,7 +20447,10 @@
       <c r="N415" t="n">
         <v>0</v>
       </c>
-      <c r="O415" t="inlineStr"/>
+      <c r="O415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -19826,7 +20495,10 @@
       <c r="N416" t="n">
         <v>0</v>
       </c>
-      <c r="O416" t="inlineStr"/>
+      <c r="O416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -19871,7 +20543,10 @@
       <c r="N417" t="n">
         <v>0</v>
       </c>
-      <c r="O417" t="inlineStr"/>
+      <c r="O417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -19916,7 +20591,10 @@
       <c r="N418" t="n">
         <v>0</v>
       </c>
-      <c r="O418" t="inlineStr"/>
+      <c r="O418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -19961,7 +20639,10 @@
       <c r="N419" t="n">
         <v>0</v>
       </c>
-      <c r="O419" t="inlineStr"/>
+      <c r="O419" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -20007,6 +20688,9 @@
         <v>0</v>
       </c>
       <c r="O420" t="n">
+        <v>4.166190448976482</v>
+      </c>
+      <c r="P420" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20053,7 +20737,8 @@
       <c r="N421" t="n">
         <v>0</v>
       </c>
-      <c r="O421" t="n">
+      <c r="O421" t="inlineStr"/>
+      <c r="P421" t="n">
         <v>0.001333333333333336</v>
       </c>
     </row>
@@ -20101,6 +20786,9 @@
         <v>0</v>
       </c>
       <c r="O422" t="n">
+        <v>62.07428802527662</v>
+      </c>
+      <c r="P422" t="n">
         <v>0.00150594061730772</v>
       </c>
     </row>
@@ -20147,7 +20835,8 @@
       <c r="N423" t="n">
         <v>0</v>
       </c>
-      <c r="O423" t="n">
+      <c r="O423" t="inlineStr"/>
+      <c r="P423" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20194,7 +20883,8 @@
       <c r="N424" t="n">
         <v>0</v>
       </c>
-      <c r="O424" t="n">
+      <c r="O424" t="inlineStr"/>
+      <c r="P424" t="n">
         <v>0.001567021236472424</v>
       </c>
     </row>
@@ -20241,7 +20931,8 @@
       <c r="N425" t="n">
         <v>0</v>
       </c>
-      <c r="O425" t="n">
+      <c r="O425" t="inlineStr"/>
+      <c r="P425" t="n">
         <v>0.001779513042005208</v>
       </c>
     </row>
@@ -20289,6 +20980,9 @@
         <v>0</v>
       </c>
       <c r="O426" t="n">
+        <v>0.0005773502691896423</v>
+      </c>
+      <c r="P426" t="n">
         <v>0.001345185418269128</v>
       </c>
     </row>
@@ -20336,6 +21030,9 @@
         <v>0</v>
       </c>
       <c r="O427" t="n">
+        <v>0.003464101615137757</v>
+      </c>
+      <c r="P427" t="n">
         <v>0.0007559289460184634</v>
       </c>
     </row>
@@ -20382,7 +21079,8 @@
       <c r="N428" t="n">
         <v>0</v>
       </c>
-      <c r="O428" t="n">
+      <c r="O428" t="inlineStr"/>
+      <c r="P428" t="n">
         <v>0.001499999999999988</v>
       </c>
     </row>
@@ -20429,7 +21127,8 @@
       <c r="N429" t="n">
         <v>0</v>
       </c>
-      <c r="O429" t="n">
+      <c r="O429" t="inlineStr"/>
+      <c r="P429" t="n">
         <v>0.001776388345929867</v>
       </c>
     </row>
@@ -20476,7 +21175,10 @@
       <c r="N430" t="n">
         <v>0</v>
       </c>
-      <c r="O430" t="inlineStr"/>
+      <c r="O430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -20521,7 +21223,10 @@
       <c r="N431" t="n">
         <v>0</v>
       </c>
-      <c r="O431" t="inlineStr"/>
+      <c r="O431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -20566,7 +21271,10 @@
       <c r="N432" t="n">
         <v>0</v>
       </c>
-      <c r="O432" t="inlineStr"/>
+      <c r="O432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -20611,7 +21319,10 @@
       <c r="N433" t="n">
         <v>0</v>
       </c>
-      <c r="O433" t="inlineStr"/>
+      <c r="O433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -20656,7 +21367,10 @@
       <c r="N434" t="n">
         <v>0</v>
       </c>
-      <c r="O434" t="inlineStr"/>
+      <c r="O434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -20701,7 +21415,10 @@
       <c r="N435" t="n">
         <v>0</v>
       </c>
-      <c r="O435" t="inlineStr"/>
+      <c r="O435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -20746,7 +21463,10 @@
       <c r="N436" t="n">
         <v>0</v>
       </c>
-      <c r="O436" t="inlineStr"/>
+      <c r="O436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -20791,7 +21511,10 @@
       <c r="N437" t="n">
         <v>0</v>
       </c>
-      <c r="O437" t="inlineStr"/>
+      <c r="O437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -20836,7 +21559,10 @@
       <c r="N438" t="n">
         <v>0</v>
       </c>
-      <c r="O438" t="inlineStr"/>
+      <c r="O438" t="n">
+        <v>3</v>
+      </c>
+      <c r="P438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -20881,7 +21607,8 @@
       <c r="N439" t="n">
         <v>0</v>
       </c>
-      <c r="O439" t="n">
+      <c r="O439" t="inlineStr"/>
+      <c r="P439" t="n">
         <v>0.001509230856356246</v>
       </c>
     </row>
@@ -20928,7 +21655,8 @@
       <c r="N440" t="n">
         <v>0</v>
       </c>
-      <c r="O440" t="n">
+      <c r="O440" t="inlineStr"/>
+      <c r="P440" t="n">
         <v>0.001414213562373058</v>
       </c>
     </row>
@@ -20975,7 +21703,8 @@
       <c r="N441" t="n">
         <v>0</v>
       </c>
-      <c r="O441" t="n">
+      <c r="O441" t="inlineStr"/>
+      <c r="P441" t="n">
         <v>0.001543588891728059</v>
       </c>
     </row>
@@ -21022,7 +21751,8 @@
       <c r="N442" t="n">
         <v>0</v>
       </c>
-      <c r="O442" t="n">
+      <c r="O442" t="inlineStr"/>
+      <c r="P442" t="n">
         <v>0.001702938636592658</v>
       </c>
     </row>
@@ -21069,7 +21799,8 @@
       <c r="N443" t="n">
         <v>0</v>
       </c>
-      <c r="O443" t="n">
+      <c r="O443" t="inlineStr"/>
+      <c r="P443" t="n">
         <v>0.0008755950357711338</v>
       </c>
     </row>
@@ -21116,7 +21847,8 @@
       <c r="N444" t="n">
         <v>0</v>
       </c>
-      <c r="O444" t="n">
+      <c r="O444" t="inlineStr"/>
+      <c r="P444" t="n">
         <v>0.00128599291513493</v>
       </c>
     </row>
@@ -21163,7 +21895,10 @@
       <c r="N445" t="n">
         <v>0</v>
       </c>
-      <c r="O445" t="inlineStr"/>
+      <c r="O445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -21208,7 +21943,10 @@
       <c r="N446" t="n">
         <v>0</v>
       </c>
-      <c r="O446" t="inlineStr"/>
+      <c r="O446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -21253,7 +21991,10 @@
       <c r="N447" t="n">
         <v>0</v>
       </c>
-      <c r="O447" t="inlineStr"/>
+      <c r="O447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -21298,7 +22039,10 @@
       <c r="N448" t="n">
         <v>0</v>
       </c>
-      <c r="O448" t="inlineStr"/>
+      <c r="O448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -21343,7 +22087,10 @@
       <c r="N449" t="n">
         <v>0</v>
       </c>
-      <c r="O449" t="inlineStr"/>
+      <c r="O449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -21388,7 +22135,10 @@
       <c r="N450" t="n">
         <v>0</v>
       </c>
-      <c r="O450" t="inlineStr"/>
+      <c r="O450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -21433,7 +22183,8 @@
       <c r="N451" t="n">
         <v>0</v>
       </c>
-      <c r="O451" t="n">
+      <c r="O451" t="inlineStr"/>
+      <c r="P451" t="n">
         <v>0.001333333333333325</v>
       </c>
     </row>
@@ -21480,7 +22231,8 @@
       <c r="N452" t="n">
         <v>0</v>
       </c>
-      <c r="O452" t="n">
+      <c r="O452" t="inlineStr"/>
+      <c r="P452" t="n">
         <v>0.001897366596101017</v>
       </c>
     </row>
@@ -21527,7 +22279,10 @@
       <c r="N453" t="n">
         <v>0</v>
       </c>
-      <c r="O453" t="inlineStr"/>
+      <c r="O453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -21572,7 +22327,8 @@
       <c r="N454" t="n">
         <v>0</v>
       </c>
-      <c r="O454" t="n">
+      <c r="O454" t="inlineStr"/>
+      <c r="P454" t="n">
         <v>0.001549193338482961</v>
       </c>
     </row>
@@ -21619,7 +22375,8 @@
       <c r="N455" t="n">
         <v>0</v>
       </c>
-      <c r="O455" t="n">
+      <c r="O455" t="inlineStr"/>
+      <c r="P455" t="n">
         <v>0.001499999999999969</v>
       </c>
     </row>
@@ -21666,7 +22423,8 @@
       <c r="N456" t="n">
         <v>0</v>
       </c>
-      <c r="O456" t="n">
+      <c r="O456" t="inlineStr"/>
+      <c r="P456" t="n">
         <v>0.001490711984999931</v>
       </c>
     </row>
@@ -21714,6 +22472,9 @@
         <v>0</v>
       </c>
       <c r="O457" t="n">
+        <v>26.8886593194975</v>
+      </c>
+      <c r="P457" t="n">
         <v>0.001112697280528467</v>
       </c>
     </row>
@@ -21760,7 +22521,8 @@
       <c r="N458" t="n">
         <v>0</v>
       </c>
-      <c r="O458" t="n">
+      <c r="O458" t="inlineStr"/>
+      <c r="P458" t="n">
         <v>0.001118033988749828</v>
       </c>
     </row>
@@ -21807,7 +22569,8 @@
       <c r="N459" t="n">
         <v>0</v>
       </c>
-      <c r="O459" t="n">
+      <c r="O459" t="inlineStr"/>
+      <c r="P459" t="n">
         <v>0.3544686220245735</v>
       </c>
     </row>
@@ -21854,7 +22617,10 @@
       <c r="N460" t="n">
         <v>0</v>
       </c>
-      <c r="O460" t="inlineStr"/>
+      <c r="O460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -21899,7 +22665,10 @@
       <c r="N461" t="n">
         <v>0</v>
       </c>
-      <c r="O461" t="inlineStr"/>
+      <c r="O461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -21944,7 +22713,10 @@
       <c r="N462" t="n">
         <v>0</v>
       </c>
-      <c r="O462" t="inlineStr"/>
+      <c r="O462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -21989,7 +22761,10 @@
       <c r="N463" t="n">
         <v>0</v>
       </c>
-      <c r="O463" t="inlineStr"/>
+      <c r="O463" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -22034,7 +22809,10 @@
       <c r="N464" t="n">
         <v>0</v>
       </c>
-      <c r="O464" t="inlineStr"/>
+      <c r="O464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -22079,7 +22857,10 @@
       <c r="N465" t="n">
         <v>0</v>
       </c>
-      <c r="O465" t="inlineStr"/>
+      <c r="O465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -22124,7 +22905,8 @@
       <c r="N466" t="n">
         <v>0</v>
       </c>
-      <c r="O466" t="n">
+      <c r="O466" t="inlineStr"/>
+      <c r="P466" t="n">
         <v>0.0006666666666666642</v>
       </c>
     </row>
@@ -22171,7 +22953,8 @@
       <c r="N467" t="n">
         <v>0</v>
       </c>
-      <c r="O467" t="n">
+      <c r="O467" t="inlineStr"/>
+      <c r="P467" t="n">
         <v>0.001229272594305714</v>
       </c>
     </row>
@@ -22218,7 +23001,10 @@
       <c r="N468" t="n">
         <v>0</v>
       </c>
-      <c r="O468" t="inlineStr"/>
+      <c r="O468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -22263,7 +23049,8 @@
       <c r="N469" t="n">
         <v>0</v>
       </c>
-      <c r="O469" t="n">
+      <c r="O469" t="inlineStr"/>
+      <c r="P469" t="n">
         <v>0.001247219128924642</v>
       </c>
     </row>
@@ -22310,7 +23097,8 @@
       <c r="N470" t="n">
         <v>0</v>
       </c>
-      <c r="O470" t="n">
+      <c r="O470" t="inlineStr"/>
+      <c r="P470" t="n">
         <v>0.001888562063228673</v>
       </c>
     </row>
@@ -22357,7 +23145,8 @@
       <c r="N471" t="n">
         <v>0</v>
       </c>
-      <c r="O471" t="n">
+      <c r="O471" t="inlineStr"/>
+      <c r="P471" t="n">
         <v>0.0013703203194064</v>
       </c>
     </row>
@@ -22404,7 +23193,8 @@
       <c r="N472" t="n">
         <v>0</v>
       </c>
-      <c r="O472" t="n">
+      <c r="O472" t="inlineStr"/>
+      <c r="P472" t="n">
         <v>0.001833333333333278</v>
       </c>
     </row>
@@ -22451,7 +23241,8 @@
       <c r="N473" t="n">
         <v>0</v>
       </c>
-      <c r="O473" t="n">
+      <c r="O473" t="inlineStr"/>
+      <c r="P473" t="n">
         <v>0.0009660917830792057</v>
       </c>
     </row>
@@ -22498,7 +23289,8 @@
       <c r="N474" t="n">
         <v>0</v>
       </c>
-      <c r="O474" t="n">
+      <c r="O474" t="inlineStr"/>
+      <c r="P474" t="n">
         <v>0.6742364323193064</v>
       </c>
     </row>
@@ -22545,7 +23337,10 @@
       <c r="N475" t="n">
         <v>0</v>
       </c>
-      <c r="O475" t="inlineStr"/>
+      <c r="O475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -22590,7 +23385,10 @@
       <c r="N476" t="n">
         <v>0</v>
       </c>
-      <c r="O476" t="inlineStr"/>
+      <c r="O476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P476" t="inlineStr"/>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
@@ -22635,7 +23433,10 @@
       <c r="N477" t="n">
         <v>0</v>
       </c>
-      <c r="O477" t="inlineStr"/>
+      <c r="O477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -22680,7 +23481,10 @@
       <c r="N478" t="n">
         <v>0</v>
       </c>
-      <c r="O478" t="inlineStr"/>
+      <c r="O478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -22725,7 +23529,10 @@
       <c r="N479" t="n">
         <v>0</v>
       </c>
-      <c r="O479" t="inlineStr"/>
+      <c r="O479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -22771,6 +23578,9 @@
         <v>0</v>
       </c>
       <c r="O480" t="n">
+        <v>0.1169141422868366</v>
+      </c>
+      <c r="P480" t="n">
         <v>0.001032795558988637</v>
       </c>
     </row>
@@ -22817,7 +23627,8 @@
       <c r="N481" t="n">
         <v>0</v>
       </c>
-      <c r="O481" t="n">
+      <c r="O481" t="inlineStr"/>
+      <c r="P481" t="n">
         <v>0.001244945335703086</v>
       </c>
     </row>
@@ -22864,7 +23675,8 @@
       <c r="N482" t="n">
         <v>0</v>
       </c>
-      <c r="O482" t="n">
+      <c r="O482" t="inlineStr"/>
+      <c r="P482" t="n">
         <v>0.0009189365834726921</v>
       </c>
     </row>
@@ -22911,7 +23723,10 @@
       <c r="N483" t="n">
         <v>0</v>
       </c>
-      <c r="O483" t="inlineStr"/>
+      <c r="O483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -22956,7 +23771,8 @@
       <c r="N484" t="n">
         <v>0</v>
       </c>
-      <c r="O484" t="n">
+      <c r="O484" t="inlineStr"/>
+      <c r="P484" t="n">
         <v>0.001135292424395062</v>
       </c>
     </row>
@@ -23003,7 +23819,8 @@
       <c r="N485" t="n">
         <v>0</v>
       </c>
-      <c r="O485" t="n">
+      <c r="O485" t="inlineStr"/>
+      <c r="P485" t="n">
         <v>0.001911950719959995</v>
       </c>
     </row>
@@ -23050,7 +23867,8 @@
       <c r="N486" t="n">
         <v>0</v>
       </c>
-      <c r="O486" t="n">
+      <c r="O486" t="inlineStr"/>
+      <c r="P486" t="n">
         <v>0.001855921454276718</v>
       </c>
     </row>
@@ -23097,7 +23915,8 @@
       <c r="N487" t="n">
         <v>0</v>
       </c>
-      <c r="O487" t="n">
+      <c r="O487" t="inlineStr"/>
+      <c r="P487" t="n">
         <v>0.001286683937707887</v>
       </c>
     </row>
@@ -23144,7 +23963,8 @@
       <c r="N488" t="n">
         <v>0</v>
       </c>
-      <c r="O488" t="n">
+      <c r="O488" t="inlineStr"/>
+      <c r="P488" t="n">
         <v>0.001728840330651968</v>
       </c>
     </row>
@@ -23191,7 +24011,8 @@
       <c r="N489" t="n">
         <v>0</v>
       </c>
-      <c r="O489" t="n">
+      <c r="O489" t="inlineStr"/>
+      <c r="P489" t="n">
         <v>0.002420973174388992</v>
       </c>
     </row>
@@ -23238,7 +24059,10 @@
       <c r="N490" t="n">
         <v>0</v>
       </c>
-      <c r="O490" t="inlineStr"/>
+      <c r="O490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -23283,7 +24107,10 @@
       <c r="N491" t="n">
         <v>0</v>
       </c>
-      <c r="O491" t="inlineStr"/>
+      <c r="O491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -23328,7 +24155,10 @@
       <c r="N492" t="n">
         <v>0</v>
       </c>
-      <c r="O492" t="inlineStr"/>
+      <c r="O492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -23373,7 +24203,10 @@
       <c r="N493" t="n">
         <v>0</v>
       </c>
-      <c r="O493" t="inlineStr"/>
+      <c r="O493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -23418,7 +24251,10 @@
       <c r="N494" t="n">
         <v>0</v>
       </c>
-      <c r="O494" t="inlineStr"/>
+      <c r="O494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -23463,7 +24299,8 @@
       <c r="N495" t="n">
         <v>0</v>
       </c>
-      <c r="O495" t="n">
+      <c r="O495" t="inlineStr"/>
+      <c r="P495" t="n">
         <v>0.00105409255338946</v>
       </c>
     </row>
@@ -23510,7 +24347,8 @@
       <c r="N496" t="n">
         <v>0</v>
       </c>
-      <c r="O496" t="n">
+      <c r="O496" t="inlineStr"/>
+      <c r="P496" t="n">
         <v>0.000994428926011757</v>
       </c>
     </row>
@@ -23557,7 +24395,8 @@
       <c r="N497" t="n">
         <v>0</v>
       </c>
-      <c r="O497" t="n">
+      <c r="O497" t="inlineStr"/>
+      <c r="P497" t="n">
         <v>0.0008232726023485663</v>
       </c>
     </row>
@@ -23604,7 +24443,8 @@
       <c r="N498" t="n">
         <v>0</v>
       </c>
-      <c r="O498" t="n">
+      <c r="O498" t="inlineStr"/>
+      <c r="P498" t="n">
         <v>0.002424412872795779</v>
       </c>
     </row>
@@ -23652,6 +24492,9 @@
         <v>0</v>
       </c>
       <c r="O499" t="n">
+        <v>43.66157731156002</v>
+      </c>
+      <c r="P499" t="n">
         <v>0.001825741858350476</v>
       </c>
     </row>
@@ -23698,7 +24541,8 @@
       <c r="N500" t="n">
         <v>0</v>
       </c>
-      <c r="O500" t="n">
+      <c r="O500" t="inlineStr"/>
+      <c r="P500" t="n">
         <v>0.001728840330652059</v>
       </c>
     </row>
@@ -23745,7 +24589,8 @@
       <c r="N501" t="n">
         <v>0</v>
       </c>
-      <c r="O501" t="n">
+      <c r="O501" t="inlineStr"/>
+      <c r="P501" t="n">
         <v>0.0009428090415820185</v>
       </c>
     </row>
@@ -23792,7 +24637,8 @@
       <c r="N502" t="n">
         <v>0</v>
       </c>
-      <c r="O502" t="n">
+      <c r="O502" t="inlineStr"/>
+      <c r="P502" t="n">
         <v>0.002013840995599084</v>
       </c>
     </row>
@@ -23839,7 +24685,8 @@
       <c r="N503" t="n">
         <v>0</v>
       </c>
-      <c r="O503" t="n">
+      <c r="O503" t="inlineStr"/>
+      <c r="P503" t="n">
         <v>0.002209977375449823</v>
       </c>
     </row>
@@ -23886,7 +24733,8 @@
       <c r="N504" t="n">
         <v>0</v>
       </c>
-      <c r="O504" t="n">
+      <c r="O504" t="inlineStr"/>
+      <c r="P504" t="n">
         <v>0.001269295517643957</v>
       </c>
     </row>
@@ -23933,7 +24781,8 @@
       <c r="N505" t="n">
         <v>0</v>
       </c>
-      <c r="O505" t="n">
+      <c r="O505" t="inlineStr"/>
+      <c r="P505" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23980,7 +24829,8 @@
       <c r="N506" t="n">
         <v>0</v>
       </c>
-      <c r="O506" t="n">
+      <c r="O506" t="inlineStr"/>
+      <c r="P506" t="n">
         <v>0.0008755950357709221</v>
       </c>
     </row>
@@ -24027,7 +24877,8 @@
       <c r="N507" t="n">
         <v>0</v>
       </c>
-      <c r="O507" t="n">
+      <c r="O507" t="inlineStr"/>
+      <c r="P507" t="n">
         <v>0.001728840330651953</v>
       </c>
     </row>
@@ -24074,7 +24925,8 @@
       <c r="N508" t="n">
         <v>0</v>
       </c>
-      <c r="O508" t="n">
+      <c r="O508" t="inlineStr"/>
+      <c r="P508" t="n">
         <v>0.001567021236472468</v>
       </c>
     </row>
@@ -24121,7 +24973,8 @@
       <c r="N509" t="n">
         <v>0</v>
       </c>
-      <c r="O509" t="n">
+      <c r="O509" t="inlineStr"/>
+      <c r="P509" t="n">
         <v>0.002118699810942794</v>
       </c>
     </row>
@@ -24169,6 +25022,9 @@
         <v>0</v>
       </c>
       <c r="O510" t="n">
+        <v>3.535533905932738</v>
+      </c>
+      <c r="P510" t="n">
         <v>0.001195228609334707</v>
       </c>
     </row>
@@ -24216,6 +25072,9 @@
         <v>0</v>
       </c>
       <c r="O511" t="n">
+        <v>4.949747468305833</v>
+      </c>
+      <c r="P511" t="n">
         <v>0.001922609833384921</v>
       </c>
     </row>
@@ -24262,7 +25121,8 @@
       <c r="N512" t="n">
         <v>0</v>
       </c>
-      <c r="O512" t="n">
+      <c r="O512" t="inlineStr"/>
+      <c r="P512" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24309,7 +25169,8 @@
       <c r="N513" t="n">
         <v>0</v>
       </c>
-      <c r="O513" t="n">
+      <c r="O513" t="inlineStr"/>
+      <c r="P513" t="n">
         <v>0.0008432740427115693</v>
       </c>
     </row>
@@ -24356,7 +25217,8 @@
       <c r="N514" t="n">
         <v>0</v>
       </c>
-      <c r="O514" t="n">
+      <c r="O514" t="inlineStr"/>
+      <c r="P514" t="n">
         <v>0.002000000000000051</v>
       </c>
     </row>
@@ -24403,7 +25265,8 @@
       <c r="N515" t="n">
         <v>0</v>
       </c>
-      <c r="O515" t="n">
+      <c r="O515" t="inlineStr"/>
+      <c r="P515" t="n">
         <v>0.001646545204697202</v>
       </c>
     </row>
@@ -24450,7 +25313,8 @@
       <c r="N516" t="n">
         <v>0</v>
       </c>
-      <c r="O516" t="n">
+      <c r="O516" t="inlineStr"/>
+      <c r="P516" t="n">
         <v>0.002368778400592004</v>
       </c>
     </row>
@@ -24497,7 +25361,8 @@
       <c r="N517" t="n">
         <v>0</v>
       </c>
-      <c r="O517" t="n">
+      <c r="O517" t="inlineStr"/>
+      <c r="P517" t="n">
         <v>0.001264911064067479</v>
       </c>
     </row>
@@ -24544,7 +25409,8 @@
       <c r="N518" t="n">
         <v>0</v>
       </c>
-      <c r="O518" t="n">
+      <c r="O518" t="inlineStr"/>
+      <c r="P518" t="n">
         <v>0.001173787790776896</v>
       </c>
     </row>
@@ -24591,7 +25457,8 @@
       <c r="N519" t="n">
         <v>0</v>
       </c>
-      <c r="O519" t="n">
+      <c r="O519" t="inlineStr"/>
+      <c r="P519" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24638,7 +25505,8 @@
       <c r="N520" t="n">
         <v>0</v>
       </c>
-      <c r="O520" t="n">
+      <c r="O520" t="inlineStr"/>
+      <c r="P520" t="n">
         <v>0.001013793755049712</v>
       </c>
     </row>
@@ -24685,7 +25553,8 @@
       <c r="N521" t="n">
         <v>0</v>
       </c>
-      <c r="O521" t="n">
+      <c r="O521" t="inlineStr"/>
+      <c r="P521" t="n">
         <v>0.001197218999737891</v>
       </c>
     </row>
@@ -24733,6 +25602,9 @@
         <v>0</v>
       </c>
       <c r="O522" t="n">
+        <v>16.26345596729059</v>
+      </c>
+      <c r="P522" t="n">
         <v>0.001550806241927204</v>
       </c>
     </row>
@@ -24779,7 +25651,8 @@
       <c r="N523" t="n">
         <v>0</v>
       </c>
-      <c r="O523" t="n">
+      <c r="O523" t="inlineStr"/>
+      <c r="P523" t="n">
         <v>0.001247219128924653</v>
       </c>
     </row>
@@ -24826,7 +25699,8 @@
       <c r="N524" t="n">
         <v>0</v>
       </c>
-      <c r="O524" t="n">
+      <c r="O524" t="inlineStr"/>
+      <c r="P524" t="n">
         <v>0.3076739796891795</v>
       </c>
     </row>
@@ -24873,7 +25747,8 @@
       <c r="N525" t="n">
         <v>0</v>
       </c>
-      <c r="O525" t="n">
+      <c r="O525" t="inlineStr"/>
+      <c r="P525" t="n">
         <v>0.00188561808316394</v>
       </c>
     </row>
@@ -24920,7 +25795,8 @@
       <c r="N526" t="n">
         <v>0</v>
       </c>
-      <c r="O526" t="n">
+      <c r="O526" t="inlineStr"/>
+      <c r="P526" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24967,7 +25843,8 @@
       <c r="N527" t="n">
         <v>0</v>
       </c>
-      <c r="O527" t="n">
+      <c r="O527" t="inlineStr"/>
+      <c r="P527" t="n">
         <v>0.001897366596101023</v>
       </c>
     </row>
@@ -25014,7 +25891,8 @@
       <c r="N528" t="n">
         <v>0</v>
       </c>
-      <c r="O528" t="n">
+      <c r="O528" t="inlineStr"/>
+      <c r="P528" t="n">
         <v>0.001475729574745245</v>
       </c>
     </row>
@@ -25061,7 +25939,8 @@
       <c r="N529" t="n">
         <v>0</v>
       </c>
-      <c r="O529" t="n">
+      <c r="O529" t="inlineStr"/>
+      <c r="P529" t="n">
         <v>0.002221110833194324</v>
       </c>
     </row>
@@ -25108,7 +25987,8 @@
       <c r="N530" t="n">
         <v>0</v>
       </c>
-      <c r="O530" t="n">
+      <c r="O530" t="inlineStr"/>
+      <c r="P530" t="n">
         <v>0.002110818693198239</v>
       </c>
     </row>
@@ -25155,7 +26035,8 @@
       <c r="N531" t="n">
         <v>0</v>
       </c>
-      <c r="O531" t="n">
+      <c r="O531" t="inlineStr"/>
+      <c r="P531" t="n">
         <v>0.002233582075700021</v>
       </c>
     </row>
@@ -25202,7 +26083,8 @@
       <c r="N532" t="n">
         <v>0</v>
       </c>
-      <c r="O532" t="n">
+      <c r="O532" t="inlineStr"/>
+      <c r="P532" t="n">
         <v>0.002394437999475562</v>
       </c>
     </row>
@@ -25249,7 +26131,8 @@
       <c r="N533" t="n">
         <v>0</v>
       </c>
-      <c r="O533" t="n">
+      <c r="O533" t="inlineStr"/>
+      <c r="P533" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25296,7 +26179,8 @@
       <c r="N534" t="n">
         <v>0</v>
       </c>
-      <c r="O534" t="n">
+      <c r="O534" t="inlineStr"/>
+      <c r="P534" t="n">
         <v>0.002549509756796408</v>
       </c>
     </row>
@@ -25343,7 +26227,8 @@
       <c r="N535" t="n">
         <v>0</v>
       </c>
-      <c r="O535" t="n">
+      <c r="O535" t="inlineStr"/>
+      <c r="P535" t="n">
         <v>0.001712697677155357</v>
       </c>
     </row>
@@ -25390,7 +26275,8 @@
       <c r="N536" t="n">
         <v>0</v>
       </c>
-      <c r="O536" t="n">
+      <c r="O536" t="inlineStr"/>
+      <c r="P536" t="n">
         <v>0.001728840330652018</v>
       </c>
     </row>
@@ -25437,7 +26323,8 @@
       <c r="N537" t="n">
         <v>0</v>
       </c>
-      <c r="O537" t="n">
+      <c r="O537" t="inlineStr"/>
+      <c r="P537" t="n">
         <v>0.001828782229912838</v>
       </c>
     </row>
@@ -25484,7 +26371,8 @@
       <c r="N538" t="n">
         <v>0</v>
       </c>
-      <c r="O538" t="n">
+      <c r="O538" t="inlineStr"/>
+      <c r="P538" t="n">
         <v>0.0007378647873726793</v>
       </c>
     </row>
@@ -25531,7 +26419,8 @@
       <c r="N539" t="n">
         <v>0</v>
       </c>
-      <c r="O539" t="n">
+      <c r="O539" t="inlineStr"/>
+      <c r="P539" t="n">
         <v>0.001888562063228847</v>
       </c>
     </row>
@@ -25578,7 +26467,8 @@
       <c r="N540" t="n">
         <v>0</v>
       </c>
-      <c r="O540" t="n">
+      <c r="O540" t="inlineStr"/>
+      <c r="P540" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25625,7 +26515,8 @@
       <c r="N541" t="n">
         <v>0</v>
       </c>
-      <c r="O541" t="n">
+      <c r="O541" t="inlineStr"/>
+      <c r="P541" t="n">
         <v>0.00176698110409313</v>
       </c>
     </row>
@@ -25672,7 +26563,8 @@
       <c r="N542" t="n">
         <v>0</v>
       </c>
-      <c r="O542" t="n">
+      <c r="O542" t="inlineStr"/>
+      <c r="P542" t="n">
         <v>0.0009944289260117708</v>
       </c>
     </row>
@@ -25719,7 +26611,8 @@
       <c r="N543" t="n">
         <v>0</v>
       </c>
-      <c r="O543" t="n">
+      <c r="O543" t="inlineStr"/>
+      <c r="P543" t="n">
         <v>0.001649915822768624</v>
       </c>
     </row>
@@ -25766,7 +26659,8 @@
       <c r="N544" t="n">
         <v>0</v>
       </c>
-      <c r="O544" t="n">
+      <c r="O544" t="inlineStr"/>
+      <c r="P544" t="n">
         <v>0.001229272594305765</v>
       </c>
     </row>
@@ -25813,7 +26707,8 @@
       <c r="N545" t="n">
         <v>0</v>
       </c>
-      <c r="O545" t="n">
+      <c r="O545" t="inlineStr"/>
+      <c r="P545" t="n">
         <v>0.0008498365855989444</v>
       </c>
     </row>
@@ -25860,7 +26755,8 @@
       <c r="N546" t="n">
         <v>0</v>
       </c>
-      <c r="O546" t="n">
+      <c r="O546" t="inlineStr"/>
+      <c r="P546" t="n">
         <v>2.00106049661451</v>
       </c>
     </row>
@@ -25907,7 +26803,8 @@
       <c r="N547" t="n">
         <v>0</v>
       </c>
-      <c r="O547" t="n">
+      <c r="O547" t="inlineStr"/>
+      <c r="P547" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25954,7 +26851,8 @@
       <c r="N548" t="n">
         <v>0</v>
       </c>
-      <c r="O548" t="n">
+      <c r="O548" t="inlineStr"/>
+      <c r="P548" t="n">
         <v>0.00110050493461463</v>
       </c>
     </row>
@@ -26001,7 +26899,8 @@
       <c r="N549" t="n">
         <v>0</v>
       </c>
-      <c r="O549" t="n">
+      <c r="O549" t="inlineStr"/>
+      <c r="P549" t="n">
         <v>0.001414213562373134</v>
       </c>
     </row>
@@ -26048,7 +26947,8 @@
       <c r="N550" t="n">
         <v>0</v>
       </c>
-      <c r="O550" t="n">
+      <c r="O550" t="inlineStr"/>
+      <c r="P550" t="n">
         <v>0.001251665557034661</v>
       </c>
     </row>
@@ -26095,7 +26995,8 @@
       <c r="N551" t="n">
         <v>0</v>
       </c>
-      <c r="O551" t="n">
+      <c r="O551" t="inlineStr"/>
+      <c r="P551" t="n">
         <v>0.001715938356831172</v>
       </c>
     </row>
@@ -26142,7 +27043,8 @@
       <c r="N552" t="n">
         <v>0</v>
       </c>
-      <c r="O552" t="n">
+      <c r="O552" t="inlineStr"/>
+      <c r="P552" t="n">
         <v>0.001766981104093383</v>
       </c>
     </row>
@@ -26189,7 +27091,8 @@
       <c r="N553" t="n">
         <v>0</v>
       </c>
-      <c r="O553" t="n">
+      <c r="O553" t="inlineStr"/>
+      <c r="P553" t="n">
         <v>0.001414213562372919</v>
       </c>
     </row>
@@ -26236,7 +27139,8 @@
       <c r="N554" t="n">
         <v>0</v>
       </c>
-      <c r="O554" t="n">
+      <c r="O554" t="inlineStr"/>
+      <c r="P554" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26283,7 +27187,8 @@
       <c r="N555" t="n">
         <v>0</v>
       </c>
-      <c r="O555" t="n">
+      <c r="O555" t="inlineStr"/>
+      <c r="P555" t="n">
         <v>0.001567021236472428</v>
       </c>
     </row>
@@ -26330,7 +27235,8 @@
       <c r="N556" t="n">
         <v>0</v>
       </c>
-      <c r="O556" t="n">
+      <c r="O556" t="inlineStr"/>
+      <c r="P556" t="n">
         <v>0.001135292424395105</v>
       </c>
     </row>
@@ -26377,7 +27283,8 @@
       <c r="N557" t="n">
         <v>0</v>
       </c>
-      <c r="O557" t="n">
+      <c r="O557" t="inlineStr"/>
+      <c r="P557" t="n">
         <v>0.01609036979065448</v>
       </c>
     </row>
@@ -26424,7 +27331,8 @@
       <c r="N558" t="n">
         <v>0</v>
       </c>
-      <c r="O558" t="n">
+      <c r="O558" t="inlineStr"/>
+      <c r="P558" t="n">
         <v>0.001828782229912843</v>
       </c>
     </row>
@@ -26471,7 +27379,8 @@
       <c r="N559" t="n">
         <v>0</v>
       </c>
-      <c r="O559" t="n">
+      <c r="O559" t="inlineStr"/>
+      <c r="P559" t="n">
         <v>0.04648431515635747</v>
       </c>
     </row>
@@ -26519,6 +27428,9 @@
         <v>0</v>
       </c>
       <c r="O560" t="n">
+        <v>0.03676955262170019</v>
+      </c>
+      <c r="P560" t="n">
         <v>0.1668557439398305</v>
       </c>
     </row>
@@ -26565,7 +27477,8 @@
       <c r="N561" t="n">
         <v>0</v>
       </c>
-      <c r="O561" t="n">
+      <c r="O561" t="inlineStr"/>
+      <c r="P561" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26612,7 +27525,8 @@
       <c r="N562" t="n">
         <v>0</v>
       </c>
-      <c r="O562" t="n">
+      <c r="O562" t="inlineStr"/>
+      <c r="P562" t="n">
         <v>0.001173787790777267</v>
       </c>
     </row>
@@ -26659,7 +27573,8 @@
       <c r="N563" t="n">
         <v>0</v>
       </c>
-      <c r="O563" t="n">
+      <c r="O563" t="inlineStr"/>
+      <c r="P563" t="n">
         <v>0.001337493509849271</v>
       </c>
     </row>
@@ -26706,7 +27621,8 @@
       <c r="N564" t="n">
         <v>0</v>
       </c>
-      <c r="O564" t="n">
+      <c r="O564" t="inlineStr"/>
+      <c r="P564" t="n">
         <v>0.001431238779674661</v>
       </c>
     </row>
@@ -26753,7 +27669,8 @@
       <c r="N565" t="n">
         <v>0</v>
       </c>
-      <c r="O565" t="n">
+      <c r="O565" t="inlineStr"/>
+      <c r="P565" t="n">
         <v>0.002682246156571705</v>
       </c>
     </row>
@@ -26801,6 +27718,9 @@
         <v>0</v>
       </c>
       <c r="O566" t="n">
+        <v>321.7335854398791</v>
+      </c>
+      <c r="P566" t="n">
         <v>0.001733493582335926</v>
       </c>
     </row>
@@ -26847,7 +27767,8 @@
       <c r="N567" t="n">
         <v>0</v>
       </c>
-      <c r="O567" t="n">
+      <c r="O567" t="inlineStr"/>
+      <c r="P567" t="n">
         <v>0.001702938636592565</v>
       </c>
     </row>
@@ -26894,7 +27815,10 @@
       <c r="N568" t="n">
         <v>0</v>
       </c>
-      <c r="O568" t="inlineStr"/>
+      <c r="O568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P568" t="inlineStr"/>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
@@ -26939,7 +27863,10 @@
       <c r="N569" t="n">
         <v>0</v>
       </c>
-      <c r="O569" t="inlineStr"/>
+      <c r="O569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P569" t="inlineStr"/>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
@@ -26984,7 +27911,10 @@
       <c r="N570" t="n">
         <v>0</v>
       </c>
-      <c r="O570" t="inlineStr"/>
+      <c r="O570" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P570" t="inlineStr"/>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
@@ -27029,7 +27959,10 @@
       <c r="N571" t="n">
         <v>0</v>
       </c>
-      <c r="O571" t="inlineStr"/>
+      <c r="O571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P571" t="inlineStr"/>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
@@ -27074,7 +28007,10 @@
       <c r="N572" t="n">
         <v>0</v>
       </c>
-      <c r="O572" t="inlineStr"/>
+      <c r="O572" t="n">
+        <v>0</v>
+      </c>
+      <c r="P572" t="inlineStr"/>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
@@ -27119,7 +28055,10 @@
       <c r="N573" t="n">
         <v>0</v>
       </c>
-      <c r="O573" t="inlineStr"/>
+      <c r="O573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P573" t="inlineStr"/>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
@@ -27164,7 +28103,8 @@
       <c r="N574" t="n">
         <v>0</v>
       </c>
-      <c r="O574" t="n">
+      <c r="O574" t="inlineStr"/>
+      <c r="P574" t="n">
         <v>0.001333333333333333</v>
       </c>
     </row>
@@ -27211,7 +28151,8 @@
       <c r="N575" t="n">
         <v>0</v>
       </c>
-      <c r="O575" t="n">
+      <c r="O575" t="inlineStr"/>
+      <c r="P575" t="n">
         <v>0.001301708279317777</v>
       </c>
     </row>
@@ -27258,7 +28199,8 @@
       <c r="N576" t="n">
         <v>0</v>
       </c>
-      <c r="O576" t="n">
+      <c r="O576" t="inlineStr"/>
+      <c r="P576" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27305,7 +28247,8 @@
       <c r="N577" t="n">
         <v>0</v>
       </c>
-      <c r="O577" t="n">
+      <c r="O577" t="inlineStr"/>
+      <c r="P577" t="n">
         <v>0.001229272594305729</v>
       </c>
     </row>
@@ -27352,7 +28295,8 @@
       <c r="N578" t="n">
         <v>0</v>
       </c>
-      <c r="O578" t="n">
+      <c r="O578" t="inlineStr"/>
+      <c r="P578" t="n">
         <v>0.001494434118097327</v>
       </c>
     </row>
@@ -27400,6 +28344,9 @@
         <v>0</v>
       </c>
       <c r="O579" t="n">
+        <v>0.003240370349203887</v>
+      </c>
+      <c r="P579" t="n">
         <v>0.0005477225575051527</v>
       </c>
     </row>
@@ -27447,6 +28394,9 @@
         <v>0</v>
       </c>
       <c r="O580" t="n">
+        <v>0.004949747468305877</v>
+      </c>
+      <c r="P580" t="n">
         <v>0.000925820099772547</v>
       </c>
     </row>
@@ -27494,6 +28444,9 @@
         <v>0</v>
       </c>
       <c r="O581" t="n">
+        <v>0.0007071067811865089</v>
+      </c>
+      <c r="P581" t="n">
         <v>0.0007440238091428441</v>
       </c>
     </row>
@@ -27541,6 +28494,9 @@
         <v>0</v>
       </c>
       <c r="O582" t="n">
+        <v>0.0007071067811865089</v>
+      </c>
+      <c r="P582" t="n">
         <v>0.0009910312089651157</v>
       </c>
     </row>
@@ -27587,7 +28543,10 @@
       <c r="N583" t="n">
         <v>0</v>
       </c>
-      <c r="O583" t="inlineStr"/>
+      <c r="O583" t="n">
+        <v>0</v>
+      </c>
+      <c r="P583" t="inlineStr"/>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
@@ -27632,7 +28591,10 @@
       <c r="N584" t="n">
         <v>0</v>
       </c>
-      <c r="O584" t="inlineStr"/>
+      <c r="O584" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P584" t="inlineStr"/>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
@@ -27677,7 +28639,10 @@
       <c r="N585" t="n">
         <v>0</v>
       </c>
-      <c r="O585" t="inlineStr"/>
+      <c r="O585" t="n">
+        <v>0</v>
+      </c>
+      <c r="P585" t="inlineStr"/>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
@@ -27722,7 +28687,10 @@
       <c r="N586" t="n">
         <v>0</v>
       </c>
-      <c r="O586" t="inlineStr"/>
+      <c r="O586" t="n">
+        <v>0</v>
+      </c>
+      <c r="P586" t="inlineStr"/>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
@@ -27767,7 +28735,10 @@
       <c r="N587" t="n">
         <v>0</v>
       </c>
-      <c r="O587" t="inlineStr"/>
+      <c r="O587" t="n">
+        <v>0</v>
+      </c>
+      <c r="P587" t="inlineStr"/>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
@@ -27812,7 +28783,10 @@
       <c r="N588" t="n">
         <v>0</v>
       </c>
-      <c r="O588" t="inlineStr"/>
+      <c r="O588" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P588" t="inlineStr"/>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
@@ -27857,7 +28831,10 @@
       <c r="N589" t="n">
         <v>0</v>
       </c>
-      <c r="O589" t="inlineStr"/>
+      <c r="O589" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P589" t="inlineStr"/>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
@@ -27902,7 +28879,10 @@
       <c r="N590" t="n">
         <v>0</v>
       </c>
-      <c r="O590" t="inlineStr"/>
+      <c r="O590" t="n">
+        <v>0</v>
+      </c>
+      <c r="P590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
@@ -27947,7 +28927,10 @@
       <c r="N591" t="n">
         <v>0</v>
       </c>
-      <c r="O591" t="inlineStr"/>
+      <c r="O591" t="n">
+        <v>0</v>
+      </c>
+      <c r="P591" t="inlineStr"/>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
@@ -27992,7 +28975,8 @@
       <c r="N592" t="n">
         <v>0</v>
       </c>
-      <c r="O592" t="n">
+      <c r="O592" t="inlineStr"/>
+      <c r="P592" t="n">
         <v>0.0009279607271383444</v>
       </c>
     </row>
@@ -28039,7 +29023,8 @@
       <c r="N593" t="n">
         <v>0</v>
       </c>
-      <c r="O593" t="n">
+      <c r="O593" t="inlineStr"/>
+      <c r="P593" t="n">
         <v>0.001166666666666643</v>
       </c>
     </row>
@@ -28086,7 +29071,8 @@
       <c r="N594" t="n">
         <v>0</v>
       </c>
-      <c r="O594" t="n">
+      <c r="O594" t="inlineStr"/>
+      <c r="P594" t="n">
         <v>0.0009660917830793826</v>
       </c>
     </row>
@@ -28133,7 +29119,8 @@
       <c r="N595" t="n">
         <v>0</v>
       </c>
-      <c r="O595" t="n">
+      <c r="O595" t="inlineStr"/>
+      <c r="P595" t="n">
         <v>0.001414213562373183</v>
       </c>
     </row>
@@ -28180,7 +29167,8 @@
       <c r="N596" t="n">
         <v>0</v>
       </c>
-      <c r="O596" t="n">
+      <c r="O596" t="inlineStr"/>
+      <c r="P596" t="n">
         <v>0.001536590742882353</v>
       </c>
     </row>
@@ -28227,7 +29215,8 @@
       <c r="N597" t="n">
         <v>0</v>
       </c>
-      <c r="O597" t="n">
+      <c r="O597" t="inlineStr"/>
+      <c r="P597" t="n">
         <v>0.001567021236472348</v>
       </c>
     </row>
@@ -28274,7 +29263,10 @@
       <c r="N598" t="n">
         <v>0</v>
       </c>
-      <c r="O598" t="inlineStr"/>
+      <c r="O598" t="n">
+        <v>0</v>
+      </c>
+      <c r="P598" t="inlineStr"/>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
@@ -28319,7 +29311,10 @@
       <c r="N599" t="n">
         <v>0</v>
       </c>
-      <c r="O599" t="inlineStr"/>
+      <c r="O599" t="n">
+        <v>0</v>
+      </c>
+      <c r="P599" t="inlineStr"/>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
@@ -28364,7 +29359,10 @@
       <c r="N600" t="n">
         <v>0</v>
       </c>
-      <c r="O600" t="inlineStr"/>
+      <c r="O600" t="n">
+        <v>0</v>
+      </c>
+      <c r="P600" t="inlineStr"/>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
@@ -28409,7 +29407,10 @@
       <c r="N601" t="n">
         <v>0</v>
       </c>
-      <c r="O601" t="inlineStr"/>
+      <c r="O601" t="n">
+        <v>0</v>
+      </c>
+      <c r="P601" t="inlineStr"/>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
@@ -28454,7 +29455,10 @@
       <c r="N602" t="n">
         <v>0</v>
       </c>
-      <c r="O602" t="inlineStr"/>
+      <c r="O602" t="n">
+        <v>0</v>
+      </c>
+      <c r="P602" t="inlineStr"/>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
@@ -28499,7 +29503,10 @@
       <c r="N603" t="n">
         <v>0</v>
       </c>
-      <c r="O603" t="inlineStr"/>
+      <c r="O603" t="n">
+        <v>0</v>
+      </c>
+      <c r="P603" t="inlineStr"/>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
@@ -28544,7 +29551,8 @@
       <c r="N604" t="n">
         <v>0</v>
       </c>
-      <c r="O604" t="n">
+      <c r="O604" t="inlineStr"/>
+      <c r="P604" t="n">
         <v>0.001414213562373087</v>
       </c>
     </row>
@@ -28591,7 +29599,8 @@
       <c r="N605" t="n">
         <v>0</v>
       </c>
-      <c r="O605" t="n">
+      <c r="O605" t="inlineStr"/>
+      <c r="P605" t="n">
         <v>0.1517210891369057</v>
       </c>
     </row>
@@ -28638,7 +29647,10 @@
       <c r="N606" t="n">
         <v>0</v>
       </c>
-      <c r="O606" t="inlineStr"/>
+      <c r="O606" t="n">
+        <v>0</v>
+      </c>
+      <c r="P606" t="inlineStr"/>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
@@ -28683,7 +29695,8 @@
       <c r="N607" t="n">
         <v>0</v>
       </c>
-      <c r="O607" t="n">
+      <c r="O607" t="inlineStr"/>
+      <c r="P607" t="n">
         <v>0.001316561177208766</v>
       </c>
     </row>
@@ -28730,7 +29743,8 @@
       <c r="N608" t="n">
         <v>0</v>
       </c>
-      <c r="O608" t="n">
+      <c r="O608" t="inlineStr"/>
+      <c r="P608" t="n">
         <v>0.001322875655532291</v>
       </c>
     </row>
@@ -28777,7 +29791,8 @@
       <c r="N609" t="n">
         <v>0</v>
       </c>
-      <c r="O609" t="n">
+      <c r="O609" t="inlineStr"/>
+      <c r="P609" t="n">
         <v>0.01025237099948647</v>
       </c>
     </row>
@@ -28825,6 +29840,9 @@
         <v>0</v>
       </c>
       <c r="O610" t="n">
+        <v>2.081665999466133</v>
+      </c>
+      <c r="P610" t="n">
         <v>0.0007559289460183618</v>
       </c>
     </row>
@@ -28871,7 +29889,8 @@
       <c r="N611" t="n">
         <v>0</v>
       </c>
-      <c r="O611" t="n">
+      <c r="O611" t="inlineStr"/>
+      <c r="P611" t="n">
         <v>0.00111803398875007</v>
       </c>
     </row>
@@ -28918,7 +29937,8 @@
       <c r="N612" t="n">
         <v>0</v>
       </c>
-      <c r="O612" t="n">
+      <c r="O612" t="inlineStr"/>
+      <c r="P612" t="n">
         <v>0.001092906420717108</v>
       </c>
     </row>
@@ -28965,7 +29985,10 @@
       <c r="N613" t="n">
         <v>0</v>
       </c>
-      <c r="O613" t="inlineStr"/>
+      <c r="O613" t="n">
+        <v>0</v>
+      </c>
+      <c r="P613" t="inlineStr"/>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
@@ -29010,7 +30033,10 @@
       <c r="N614" t="n">
         <v>0</v>
       </c>
-      <c r="O614" t="inlineStr"/>
+      <c r="O614" t="n">
+        <v>0</v>
+      </c>
+      <c r="P614" t="inlineStr"/>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
@@ -29055,7 +30081,10 @@
       <c r="N615" t="n">
         <v>0</v>
       </c>
-      <c r="O615" t="inlineStr"/>
+      <c r="O615" t="n">
+        <v>0</v>
+      </c>
+      <c r="P615" t="inlineStr"/>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
@@ -29100,7 +30129,10 @@
       <c r="N616" t="n">
         <v>0</v>
       </c>
-      <c r="O616" t="inlineStr"/>
+      <c r="O616" t="n">
+        <v>0</v>
+      </c>
+      <c r="P616" t="inlineStr"/>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
@@ -29145,7 +30177,10 @@
       <c r="N617" t="n">
         <v>0</v>
       </c>
-      <c r="O617" t="inlineStr"/>
+      <c r="O617" t="n">
+        <v>0</v>
+      </c>
+      <c r="P617" t="inlineStr"/>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
@@ -29190,7 +30225,10 @@
       <c r="N618" t="n">
         <v>0</v>
       </c>
-      <c r="O618" t="inlineStr"/>
+      <c r="O618" t="n">
+        <v>0</v>
+      </c>
+      <c r="P618" t="inlineStr"/>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
@@ -29235,7 +30273,8 @@
       <c r="N619" t="n">
         <v>0</v>
       </c>
-      <c r="O619" t="n">
+      <c r="O619" t="inlineStr"/>
+      <c r="P619" t="n">
         <v>0.000843274042711571</v>
       </c>
     </row>
@@ -29282,7 +30321,8 @@
       <c r="N620" t="n">
         <v>0</v>
       </c>
-      <c r="O620" t="n">
+      <c r="O620" t="inlineStr"/>
+      <c r="P620" t="n">
         <v>0.001577621275493231</v>
       </c>
     </row>
@@ -29329,7 +30369,10 @@
       <c r="N621" t="n">
         <v>0</v>
       </c>
-      <c r="O621" t="inlineStr"/>
+      <c r="O621" t="n">
+        <v>0</v>
+      </c>
+      <c r="P621" t="inlineStr"/>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
@@ -29374,7 +30417,8 @@
       <c r="N622" t="n">
         <v>0</v>
       </c>
-      <c r="O622" t="n">
+      <c r="O622" t="inlineStr"/>
+      <c r="P622" t="n">
         <v>0.001236033081182612</v>
       </c>
     </row>
@@ -29421,7 +30465,8 @@
       <c r="N623" t="n">
         <v>0</v>
       </c>
-      <c r="O623" t="n">
+      <c r="O623" t="inlineStr"/>
+      <c r="P623" t="n">
         <v>0.0009944289260117557</v>
       </c>
     </row>
@@ -29468,7 +30513,8 @@
       <c r="N624" t="n">
         <v>0</v>
       </c>
-      <c r="O624" t="n">
+      <c r="O624" t="inlineStr"/>
+      <c r="P624" t="n">
         <v>0.001549193338482878</v>
       </c>
     </row>
@@ -29515,7 +30561,8 @@
       <c r="N625" t="n">
         <v>0</v>
       </c>
-      <c r="O625" t="n">
+      <c r="O625" t="inlineStr"/>
+      <c r="P625" t="n">
         <v>0.00350238014308381</v>
       </c>
     </row>
@@ -29562,7 +30609,8 @@
       <c r="N626" t="n">
         <v>0</v>
       </c>
-      <c r="O626" t="n">
+      <c r="O626" t="inlineStr"/>
+      <c r="P626" t="n">
         <v>0.001344432965974838</v>
       </c>
     </row>
@@ -29609,7 +30657,8 @@
       <c r="N627" t="n">
         <v>0</v>
       </c>
-      <c r="O627" t="n">
+      <c r="O627" t="inlineStr"/>
+      <c r="P627" t="n">
         <v>0.001301708279317807</v>
       </c>
     </row>
@@ -29657,6 +30706,9 @@
         <v>0</v>
       </c>
       <c r="O628" t="n">
+        <v>3.401680257083045</v>
+      </c>
+      <c r="P628" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29703,7 +30755,10 @@
       <c r="N629" t="n">
         <v>0</v>
       </c>
-      <c r="O629" t="inlineStr"/>
+      <c r="O629" t="n">
+        <v>2.846049894151542</v>
+      </c>
+      <c r="P629" t="inlineStr"/>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
@@ -29748,7 +30803,10 @@
       <c r="N630" t="n">
         <v>0</v>
       </c>
-      <c r="O630" t="inlineStr"/>
+      <c r="O630" t="n">
+        <v>0</v>
+      </c>
+      <c r="P630" t="inlineStr"/>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
@@ -29793,7 +30851,10 @@
       <c r="N631" t="n">
         <v>0</v>
       </c>
-      <c r="O631" t="inlineStr"/>
+      <c r="O631" t="n">
+        <v>0</v>
+      </c>
+      <c r="P631" t="inlineStr"/>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
@@ -29838,7 +30899,10 @@
       <c r="N632" t="n">
         <v>0</v>
       </c>
-      <c r="O632" t="inlineStr"/>
+      <c r="O632" t="n">
+        <v>0</v>
+      </c>
+      <c r="P632" t="inlineStr"/>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
@@ -29884,6 +30948,9 @@
         <v>0</v>
       </c>
       <c r="O633" t="n">
+        <v>0.1435426765808691</v>
+      </c>
+      <c r="P633" t="n">
         <v>0.0009794313218831198</v>
       </c>
     </row>
@@ -29930,7 +30997,8 @@
       <c r="N634" t="n">
         <v>0</v>
       </c>
-      <c r="O634" t="n">
+      <c r="O634" t="inlineStr"/>
+      <c r="P634" t="n">
         <v>0.001197636561454821</v>
       </c>
     </row>
@@ -29977,7 +31045,8 @@
       <c r="N635" t="n">
         <v>0</v>
       </c>
-      <c r="O635" t="n">
+      <c r="O635" t="inlineStr"/>
+      <c r="P635" t="n">
         <v>0.001264911064067359</v>
       </c>
     </row>
@@ -30024,7 +31093,10 @@
       <c r="N636" t="n">
         <v>0</v>
       </c>
-      <c r="O636" t="inlineStr"/>
+      <c r="O636" t="n">
+        <v>0</v>
+      </c>
+      <c r="P636" t="inlineStr"/>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
@@ -30069,7 +31141,8 @@
       <c r="N637" t="n">
         <v>0</v>
       </c>
-      <c r="O637" t="n">
+      <c r="O637" t="inlineStr"/>
+      <c r="P637" t="n">
         <v>0.001740051084818432</v>
       </c>
     </row>
@@ -30116,7 +31189,8 @@
       <c r="N638" t="n">
         <v>0</v>
       </c>
-      <c r="O638" t="n">
+      <c r="O638" t="inlineStr"/>
+      <c r="P638" t="n">
         <v>0.001429840705968503</v>
       </c>
     </row>
@@ -30163,7 +31237,8 @@
       <c r="N639" t="n">
         <v>0</v>
       </c>
-      <c r="O639" t="n">
+      <c r="O639" t="inlineStr"/>
+      <c r="P639" t="n">
         <v>0.001197218999737802</v>
       </c>
     </row>
@@ -30210,7 +31285,8 @@
       <c r="N640" t="n">
         <v>0</v>
       </c>
-      <c r="O640" t="n">
+      <c r="O640" t="inlineStr"/>
+      <c r="P640" t="n">
         <v>0.001587765725791936</v>
       </c>
     </row>
@@ -30257,7 +31333,8 @@
       <c r="N641" t="n">
         <v>0</v>
       </c>
-      <c r="O641" t="n">
+      <c r="O641" t="inlineStr"/>
+      <c r="P641" t="n">
         <v>0.0008755950357705632</v>
       </c>
     </row>
@@ -30304,7 +31381,8 @@
       <c r="N642" t="n">
         <v>0</v>
       </c>
-      <c r="O642" t="n">
+      <c r="O642" t="inlineStr"/>
+      <c r="P642" t="n">
         <v>0.002043961295567553</v>
       </c>
     </row>
@@ -30351,7 +31429,10 @@
       <c r="N643" t="n">
         <v>0</v>
       </c>
-      <c r="O643" t="inlineStr"/>
+      <c r="O643" t="n">
+        <v>0</v>
+      </c>
+      <c r="P643" t="inlineStr"/>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
@@ -30396,7 +31477,10 @@
       <c r="N644" t="n">
         <v>0</v>
       </c>
-      <c r="O644" t="inlineStr"/>
+      <c r="O644" t="n">
+        <v>0</v>
+      </c>
+      <c r="P644" t="inlineStr"/>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
@@ -30441,7 +31525,10 @@
       <c r="N645" t="n">
         <v>0</v>
       </c>
-      <c r="O645" t="inlineStr"/>
+      <c r="O645" t="n">
+        <v>0</v>
+      </c>
+      <c r="P645" t="inlineStr"/>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
@@ -30486,7 +31573,10 @@
       <c r="N646" t="n">
         <v>0</v>
       </c>
-      <c r="O646" t="inlineStr"/>
+      <c r="O646" t="n">
+        <v>0</v>
+      </c>
+      <c r="P646" t="inlineStr"/>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
@@ -30531,7 +31621,10 @@
       <c r="N647" t="n">
         <v>0</v>
       </c>
-      <c r="O647" t="inlineStr"/>
+      <c r="O647" t="n">
+        <v>0</v>
+      </c>
+      <c r="P647" t="inlineStr"/>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
@@ -30576,7 +31669,8 @@
       <c r="N648" t="n">
         <v>0</v>
       </c>
-      <c r="O648" t="n">
+      <c r="O648" t="inlineStr"/>
+      <c r="P648" t="n">
         <v>0.0008660254037844464</v>
       </c>
     </row>
@@ -30623,7 +31717,8 @@
       <c r="N649" t="n">
         <v>0</v>
       </c>
-      <c r="O649" t="n">
+      <c r="O649" t="inlineStr"/>
+      <c r="P649" t="n">
         <v>0.001013793755049699</v>
       </c>
     </row>
@@ -30670,7 +31765,8 @@
       <c r="N650" t="n">
         <v>0</v>
       </c>
-      <c r="O650" t="n">
+      <c r="O650" t="inlineStr"/>
+      <c r="P650" t="n">
         <v>0.001549193338482969</v>
       </c>
     </row>
@@ -30717,7 +31813,8 @@
       <c r="N651" t="n">
         <v>0</v>
       </c>
-      <c r="O651" t="n">
+      <c r="O651" t="inlineStr"/>
+      <c r="P651" t="n">
         <v>0.001337493509849385</v>
       </c>
     </row>
@@ -30764,7 +31861,8 @@
       <c r="N652" t="n">
         <v>0</v>
       </c>
-      <c r="O652" t="n">
+      <c r="O652" t="inlineStr"/>
+      <c r="P652" t="n">
         <v>0.001092906420717023</v>
       </c>
     </row>
@@ -30811,7 +31909,8 @@
       <c r="N653" t="n">
         <v>0</v>
       </c>
-      <c r="O653" t="n">
+      <c r="O653" t="inlineStr"/>
+      <c r="P653" t="n">
         <v>0.001732050807568888</v>
       </c>
     </row>
@@ -30858,7 +31957,8 @@
       <c r="N654" t="n">
         <v>0</v>
       </c>
-      <c r="O654" t="n">
+      <c r="O654" t="inlineStr"/>
+      <c r="P654" t="n">
         <v>0.001000000000000076</v>
       </c>
     </row>
@@ -30905,7 +32005,8 @@
       <c r="N655" t="n">
         <v>0</v>
       </c>
-      <c r="O655" t="n">
+      <c r="O655" t="inlineStr"/>
+      <c r="P655" t="n">
         <v>0.001251665557034567</v>
       </c>
     </row>
@@ -30952,7 +32053,8 @@
       <c r="N656" t="n">
         <v>0</v>
       </c>
-      <c r="O656" t="n">
+      <c r="O656" t="inlineStr"/>
+      <c r="P656" t="n">
         <v>0.001286683937707881</v>
       </c>
     </row>
@@ -30999,7 +32101,8 @@
       <c r="N657" t="n">
         <v>0</v>
       </c>
-      <c r="O657" t="n">
+      <c r="O657" t="inlineStr"/>
+      <c r="P657" t="n">
         <v>0.001703460530149767</v>
       </c>
     </row>
@@ -31046,7 +32149,8 @@
       <c r="N658" t="n">
         <v>0</v>
       </c>
-      <c r="O658" t="n">
+      <c r="O658" t="inlineStr"/>
+      <c r="P658" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31093,7 +32197,8 @@
       <c r="N659" t="n">
         <v>0</v>
       </c>
-      <c r="O659" t="n">
+      <c r="O659" t="inlineStr"/>
+      <c r="P659" t="n">
         <v>0.001873795909674048</v>
       </c>
     </row>
@@ -31140,7 +32245,8 @@
       <c r="N660" t="n">
         <v>0</v>
       </c>
-      <c r="O660" t="n">
+      <c r="O660" t="inlineStr"/>
+      <c r="P660" t="n">
         <v>0.001370320319406238</v>
       </c>
     </row>
@@ -31187,7 +32293,8 @@
       <c r="N661" t="n">
         <v>0</v>
       </c>
-      <c r="O661" t="n">
+      <c r="O661" t="inlineStr"/>
+      <c r="P661" t="n">
         <v>0.001224744871391679</v>
       </c>
     </row>
@@ -31234,7 +32341,8 @@
       <c r="N662" t="n">
         <v>0</v>
       </c>
-      <c r="O662" t="n">
+      <c r="O662" t="inlineStr"/>
+      <c r="P662" t="n">
         <v>0.00191195071996005</v>
       </c>
     </row>
@@ -31281,7 +32389,8 @@
       <c r="N663" t="n">
         <v>0</v>
       </c>
-      <c r="O663" t="n">
+      <c r="O663" t="inlineStr"/>
+      <c r="P663" t="n">
         <v>0.001333333333332823</v>
       </c>
     </row>
@@ -31328,7 +32437,8 @@
       <c r="N664" t="n">
         <v>0</v>
       </c>
-      <c r="O664" t="n">
+      <c r="O664" t="inlineStr"/>
+      <c r="P664" t="n">
         <v>0.001337493509849258</v>
       </c>
     </row>
@@ -31375,7 +32485,8 @@
       <c r="N665" t="n">
         <v>0</v>
       </c>
-      <c r="O665" t="n">
+      <c r="O665" t="inlineStr"/>
+      <c r="P665" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31422,7 +32533,8 @@
       <c r="N666" t="n">
         <v>0</v>
       </c>
-      <c r="O666" t="n">
+      <c r="O666" t="inlineStr"/>
+      <c r="P666" t="n">
         <v>0.000971825315807544</v>
       </c>
     </row>
@@ -31469,7 +32581,8 @@
       <c r="N667" t="n">
         <v>0</v>
       </c>
-      <c r="O667" t="n">
+      <c r="O667" t="inlineStr"/>
+      <c r="P667" t="n">
         <v>0.001449137674618945</v>
       </c>
     </row>
@@ -31516,7 +32629,8 @@
       <c r="N668" t="n">
         <v>0</v>
       </c>
-      <c r="O668" t="n">
+      <c r="O668" t="inlineStr"/>
+      <c r="P668" t="n">
         <v>0.0009718253158075158</v>
       </c>
     </row>
@@ -31563,7 +32677,8 @@
       <c r="N669" t="n">
         <v>0</v>
       </c>
-      <c r="O669" t="n">
+      <c r="O669" t="inlineStr"/>
+      <c r="P669" t="n">
         <v>0.0014944341180974</v>
       </c>
     </row>
@@ -31610,7 +32725,8 @@
       <c r="N670" t="n">
         <v>0</v>
       </c>
-      <c r="O670" t="n">
+      <c r="O670" t="inlineStr"/>
+      <c r="P670" t="n">
         <v>0.001264911064067308</v>
       </c>
     </row>
@@ -31657,7 +32773,8 @@
       <c r="N671" t="n">
         <v>0</v>
       </c>
-      <c r="O671" t="n">
+      <c r="O671" t="inlineStr"/>
+      <c r="P671" t="n">
         <v>0.001481365736219167</v>
       </c>
     </row>
@@ -31704,7 +32821,8 @@
       <c r="N672" t="n">
         <v>0</v>
       </c>
-      <c r="O672" t="n">
+      <c r="O672" t="inlineStr"/>
+      <c r="P672" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31751,7 +32869,8 @@
       <c r="N673" t="n">
         <v>0</v>
       </c>
-      <c r="O673" t="n">
+      <c r="O673" t="inlineStr"/>
+      <c r="P673" t="n">
         <v>0.0008755950357709117</v>
       </c>
     </row>
@@ -31798,7 +32917,8 @@
       <c r="N674" t="n">
         <v>0</v>
       </c>
-      <c r="O674" t="n">
+      <c r="O674" t="inlineStr"/>
+      <c r="P674" t="n">
         <v>0.001549193338482956</v>
       </c>
     </row>
